--- a/infos.xlsx
+++ b/infos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{7C223220-2F7E-439F-9B1A-CC07E55F4F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{140D3F63-70EA-4E8B-A680-855DB30CA7C9}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{A1D14EA8-7288-4578-9DBF-B2D9111ACCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E492FC29-DE3C-4839-B98A-34F14CF20DFB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$B$1:$I$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$B$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,6 +37,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+  <si>
+    <t>Data</t>
+  </si>
   <si>
     <t>Fundos de Investimentos</t>
   </si>
@@ -61,9 +65,6 @@
     <t>Dow Jones</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
 </sst>
@@ -71,10 +72,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,17 +114,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -248,7 +253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
+                  <c:v>25/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -301,7 +306,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
+                  <c:v>25/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -310,7 +315,7 @@
             <c:numRef>
               <c:f>Planilha1!$C$3:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
@@ -357,7 +362,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
+                  <c:v>25/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -366,7 +371,7 @@
             <c:numRef>
               <c:f>Planilha1!$D$3:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
@@ -413,7 +418,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
+                  <c:v>25/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,7 +427,7 @@
             <c:numRef>
               <c:f>Planilha1!$E$3:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
@@ -469,7 +474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
+                  <c:v>25/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -478,7 +483,7 @@
             <c:numRef>
               <c:f>Planilha1!$F$3:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
@@ -525,7 +530,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
+                  <c:v>25/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -534,7 +539,7 @@
             <c:numRef>
               <c:f>Planilha1!$G$3:$G$25</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
@@ -583,7 +588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
+                  <c:v>25/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -592,10 +597,10 @@
             <c:numRef>
               <c:f>Planilha1!$H$3:$H$25</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4965.2700000000004</c:v>
+                  <c:v>4095.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,7 +646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
+                  <c:v>25/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -650,10 +655,13 @@
             <c:numRef>
               <c:f>Planilha1!$I$3:$I$25</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>92513.25</c:v>
+                  <c:v>88790.422999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,283 +875,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16/08/2022</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$J$3:$J$25</c:f>
-              <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>97478.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF15-4E53-9836-E05F3C56456D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="701501952"/>
-        <c:axId val="701495712"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="701501952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="701495712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="701495712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="701501952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -1255,46 +986,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1812,522 +1503,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2890,42 +2065,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2857</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F802A6-D910-8B35-30A9-5AB19B410728}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>100011</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
@@ -2955,7 +2094,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -2970,8 +2109,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="100011" y="10215562"/>
-              <a:ext cx="9508808" cy="2643188"/>
+              <a:off x="100011" y="10634662"/>
+              <a:ext cx="9253538" cy="2757488"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3014,17 +2153,17 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="F1" t="str">
-            <v>Conta: 2563257 | 16/08/2022 07:04</v>
+            <v>Conta: 2563257 | 25/10/2022 14:10</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>R$ 5.706,41</v>
+            <v>R$ 0,00</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Fundos de Investimentos</v>
+            <v>Fundos Imobiliários</v>
           </cell>
           <cell r="B6"/>
           <cell r="C6"/>
@@ -3032,7 +2171,7 @@
           <cell r="E6"/>
           <cell r="F6"/>
           <cell r="G6" t="str">
-            <v>R$ 123.742,97</v>
+            <v>R$ 547.268,44</v>
           </cell>
         </row>
         <row r="7">
@@ -3060,7 +2199,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>17,5% | Pós-Fixado</v>
+            <v>76,8% | Renda Variável</v>
           </cell>
           <cell r="B8" t="str">
             <v>Posição</v>
@@ -3069,374 +2208,374 @@
             <v>% Alocação</v>
           </cell>
           <cell r="D8" t="str">
-            <v>Rentabilidade</v>
+            <v>Rentabilidade c/ proventos</v>
           </cell>
           <cell r="E8" t="str">
-            <v>Valor aplicado</v>
+            <v>Preço médio (abertura)</v>
           </cell>
           <cell r="F8" t="str">
-            <v>Valor líquido</v>
+            <v>Última cotação</v>
           </cell>
           <cell r="G8" t="str">
-            <v>Data da cota</v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Trend DI Simples FIRF</v>
+            <v>BLMR11</v>
           </cell>
           <cell r="B9" t="str">
-            <v>R$ 122.989,20</v>
+            <v>R$ 76.200,00</v>
           </cell>
           <cell r="C9" t="str">
-            <v>17,41%</v>
+            <v>10,69%</v>
           </cell>
           <cell r="D9" t="str">
-            <v>2,52%</v>
+            <v>7,43%</v>
           </cell>
           <cell r="E9" t="str">
-            <v>R$ 119.968,36</v>
+            <v>R$ 7,51</v>
           </cell>
           <cell r="F9" t="str">
-            <v>R$ 122.304,29</v>
+            <v>R$ 7,62</v>
           </cell>
           <cell r="G9" t="str">
-            <v>15/08/2022</v>
+            <v>10.000</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Trend Investback FIC FIRF Simples</v>
+            <v>VGIA11</v>
           </cell>
           <cell r="B10" t="str">
-            <v>R$ 753,77</v>
+            <v>R$ 76.198,76</v>
           </cell>
           <cell r="C10" t="str">
-            <v>0,11%</v>
+            <v>10,69%</v>
           </cell>
           <cell r="D10" t="str">
-            <v>5,47%</v>
+            <v>8,97%</v>
           </cell>
           <cell r="E10" t="str">
-            <v>R$ 714,66</v>
+            <v>R$ 10,26</v>
           </cell>
           <cell r="F10" t="str">
-            <v>R$ 750,06</v>
+            <v>R$ 10,37</v>
           </cell>
           <cell r="G10" t="str">
-            <v>15/08/2022</v>
+            <v>7.348</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>RZTR11</v>
           </cell>
           <cell r="B11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 66.074,40</v>
           </cell>
           <cell r="C11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>9,27%</v>
           </cell>
           <cell r="D11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>7,92%</v>
           </cell>
           <cell r="E11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 102,97</v>
           </cell>
           <cell r="F11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 104,88</v>
           </cell>
           <cell r="G11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>630</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>RBRR11</v>
           </cell>
           <cell r="B12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 61.056,57</v>
           </cell>
           <cell r="C12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>8,57%</v>
           </cell>
           <cell r="D12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-1,54%</v>
           </cell>
           <cell r="E12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 100,38</v>
           </cell>
           <cell r="F12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 92,37</v>
           </cell>
           <cell r="G12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>661</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Fundos Imobiliários</v>
-          </cell>
-          <cell r="B13"/>
-          <cell r="C13"/>
-          <cell r="D13"/>
-          <cell r="E13"/>
-          <cell r="F13"/>
+            <v>LVBI11</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>R$ 59.861,15</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>8,4%</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>18,12%</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>R$ 98,50</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>R$ 111,89</v>
+          </cell>
           <cell r="G13" t="str">
-            <v>R$ 542.476,77</v>
+            <v>535</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>BRCO11</v>
           </cell>
           <cell r="B14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 56.094,90</v>
           </cell>
           <cell r="C14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>7,87%</v>
           </cell>
           <cell r="D14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>14,28%</v>
           </cell>
           <cell r="E14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 99,28</v>
           </cell>
           <cell r="F14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 109,99</v>
           </cell>
           <cell r="G14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>510</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>76,8% | Renda Variável</v>
+            <v>PVBI11</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Posição</v>
+            <v>R$ 53.534,52</v>
           </cell>
           <cell r="C15" t="str">
-            <v>% Alocação</v>
+            <v>7,51%</v>
           </cell>
           <cell r="D15" t="str">
-            <v>Rentabilidade c/ proventos</v>
+            <v>6,02%</v>
           </cell>
           <cell r="E15" t="str">
-            <v>Preço médio (abertura)</v>
+            <v>R$ 93,67</v>
           </cell>
           <cell r="F15" t="str">
-            <v>Última cotação</v>
+            <v>R$ 95,94</v>
           </cell>
           <cell r="G15" t="str">
-            <v>Qtd. total</v>
+            <v>558</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>VGIA11</v>
+            <v>WHGR11</v>
           </cell>
           <cell r="B16" t="str">
-            <v>R$ 74.655,68</v>
+            <v>R$ 53.216,40</v>
           </cell>
           <cell r="C16" t="str">
-            <v>10,57%</v>
+            <v>7,47%</v>
           </cell>
           <cell r="D16" t="str">
-            <v>3,71%</v>
+            <v>-7,31%</v>
           </cell>
           <cell r="E16" t="str">
-            <v>R$ 10,26</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F16" t="str">
-            <v>R$ 10,16</v>
+            <v>R$ 9,15</v>
           </cell>
           <cell r="G16" t="str">
-            <v>7.348</v>
+            <v>5.816</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>BLMR11</v>
+            <v>FGAA11</v>
           </cell>
           <cell r="B17" t="str">
-            <v>R$ 74.500,00</v>
+            <v>R$ 45.031,74</v>
           </cell>
           <cell r="C17" t="str">
-            <v>10,55%</v>
+            <v>6,32%</v>
           </cell>
           <cell r="D17" t="str">
-            <v>3,17%</v>
+            <v>7,13%</v>
           </cell>
           <cell r="E17" t="str">
-            <v>R$ 7,51</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F17" t="str">
-            <v>R$ 7,45</v>
+            <v>R$ 10,14</v>
           </cell>
           <cell r="G17" t="str">
-            <v>10.000</v>
+            <v>4.441</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>RZTR11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B18" t="str">
-            <v>R$ 65.142,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C18" t="str">
-            <v>9,22%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D18" t="str">
-            <v>4,06%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E18" t="str">
-            <v>R$ 102,97</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F18" t="str">
-            <v>R$ 103,40</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G18" t="str">
-            <v>630</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>RBRR11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B19" t="str">
-            <v>R$ 64.731,73</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C19" t="str">
-            <v>9,16%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D19" t="str">
-            <v>2,31%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E19" t="str">
-            <v>R$ 100,38</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F19" t="str">
-            <v>R$ 97,93</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G19" t="str">
-            <v>661</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>LVBI11</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>R$ 56.469,25</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>7,99%</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>10,16%</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>R$ 98,50</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>R$ 105,55</v>
-          </cell>
+            <v>Fundos de Investimentos</v>
+          </cell>
+          <cell r="B20"/>
+          <cell r="C20"/>
+          <cell r="D20"/>
+          <cell r="E20"/>
+          <cell r="F20"/>
           <cell r="G20" t="str">
-            <v>535</v>
+            <v>R$ 134.118,67</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>WHGR11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B21" t="str">
-            <v>R$ 56.298,88</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C21" t="str">
-            <v>7,97%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D21" t="str">
-            <v>-4,01%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E21" t="str">
-            <v>R$ 10,31</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F21" t="str">
-            <v>R$ 9,68</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G21" t="str">
-            <v>5.816</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>PVBI11</v>
+            <v>18,8% | Pós-Fixado</v>
           </cell>
           <cell r="B22" t="str">
-            <v>R$ 53.244,36</v>
+            <v>Posição</v>
           </cell>
           <cell r="C22" t="str">
-            <v>7,54%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D22" t="str">
-            <v>4,26%</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="E22" t="str">
-            <v>R$ 93,67</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="F22" t="str">
-            <v>R$ 95,42</v>
+            <v>Valor líquido</v>
           </cell>
           <cell r="G22" t="str">
-            <v>558</v>
+            <v>Data da cota</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>BRCO11</v>
+            <v>Trend DI Simples FIRF</v>
           </cell>
           <cell r="B23" t="str">
-            <v>R$ 52.269,90</v>
+            <v>R$ 133.260,07</v>
           </cell>
           <cell r="C23" t="str">
-            <v>7,4%</v>
+            <v>18,7%</v>
           </cell>
           <cell r="D23" t="str">
-            <v>5,32%</v>
+            <v>4,99%</v>
           </cell>
           <cell r="E23" t="str">
-            <v>R$ 99,28</v>
+            <v>R$ 126.927,18</v>
           </cell>
           <cell r="F23" t="str">
-            <v>R$ 102,49</v>
+            <v>R$ 131.833,03</v>
           </cell>
           <cell r="G23" t="str">
-            <v>510</v>
+            <v>25/10/2022</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>FGAA11</v>
+            <v>Trend Investback FIC FIRF Simples</v>
           </cell>
           <cell r="B24" t="str">
-            <v>R$ 45.164,97</v>
+            <v>R$ 858,60</v>
           </cell>
           <cell r="C24" t="str">
-            <v>6,39%</v>
+            <v>0,12%</v>
           </cell>
           <cell r="D24" t="str">
-            <v>4,71%</v>
+            <v>7,38%</v>
           </cell>
           <cell r="E24" t="str">
-            <v>R$ 10,31</v>
+            <v>R$ 799,62</v>
           </cell>
           <cell r="F24" t="str">
-            <v>R$ 10,17</v>
+            <v>R$ 850,94</v>
           </cell>
           <cell r="G24" t="str">
-            <v>4.441</v>
+            <v>25/10/2022</v>
           </cell>
         </row>
         <row r="25">
@@ -3495,7 +2634,7 @@
           <cell r="E27"/>
           <cell r="F27"/>
           <cell r="G27" t="str">
-            <v>R$ 14.873,15</v>
+            <v>R$ 12.803,15</v>
           </cell>
         </row>
         <row r="28">
@@ -3523,7 +2662,7 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>2,1% | Renda Variável</v>
+            <v>1,8% | Renda Variável</v>
           </cell>
           <cell r="B29" t="str">
             <v>Posição</v>
@@ -3549,19 +2688,19 @@
             <v>AAPL34</v>
           </cell>
           <cell r="B30" t="str">
-            <v>R$ 3.618,25</v>
+            <v>R$ 3.295,17</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0,51%</v>
+            <v>0,46%</v>
           </cell>
           <cell r="D30" t="str">
-            <v>-9,46%</v>
+            <v>-17,54%</v>
           </cell>
           <cell r="E30" t="str">
             <v>R$ 97,47</v>
           </cell>
           <cell r="F30" t="str">
-            <v>R$ 88,25</v>
+            <v>R$ 80,37</v>
           </cell>
           <cell r="G30" t="str">
             <v>41</v>
@@ -3572,19 +2711,19 @@
             <v>XPBR31</v>
           </cell>
           <cell r="B31" t="str">
-            <v>R$ 3.576,00</v>
+            <v>R$ 3.095,36</v>
           </cell>
           <cell r="C31" t="str">
-            <v>0,51%</v>
+            <v>0,43%</v>
           </cell>
           <cell r="D31" t="str">
-            <v>-28,61%</v>
+            <v>-38,21%</v>
           </cell>
           <cell r="E31" t="str">
             <v>R$ 156,54</v>
           </cell>
           <cell r="F31" t="str">
-            <v>R$ 111,75</v>
+            <v>R$ 96,73</v>
           </cell>
           <cell r="G31" t="str">
             <v>32</v>
@@ -3595,22 +2734,22 @@
             <v>GOGL34</v>
           </cell>
           <cell r="B32" t="str">
-            <v>R$ 3.154,00</v>
+            <v>R$ 2.732,40</v>
           </cell>
           <cell r="C32" t="str">
-            <v>0,45%</v>
+            <v>0,38%</v>
           </cell>
           <cell r="D32" t="str">
-            <v>-20,87%</v>
+            <v>-30,53%</v>
           </cell>
           <cell r="E32" t="str">
-            <v>R$ 5,24</v>
+            <v>R$ 65,56</v>
           </cell>
           <cell r="F32" t="str">
-            <v>R$ 4,15</v>
+            <v>R$ 45,54</v>
           </cell>
           <cell r="G32" t="str">
-            <v>760</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="33">
@@ -3618,19 +2757,19 @@
             <v>HASH11</v>
           </cell>
           <cell r="B33" t="str">
-            <v>R$ 2.559,30</v>
+            <v>R$ 2.135,22</v>
           </cell>
           <cell r="C33" t="str">
-            <v>0,36%</v>
+            <v>0,3%</v>
           </cell>
           <cell r="D33" t="str">
-            <v>-48,85%</v>
+            <v>-57,33%</v>
           </cell>
           <cell r="E33" t="str">
             <v>R$ 43,89</v>
           </cell>
           <cell r="F33" t="str">
-            <v>R$ 22,45</v>
+            <v>R$ 18,73</v>
           </cell>
           <cell r="G33" t="str">
             <v>114</v>
@@ -3641,19 +2780,19 @@
             <v>M1TA34</v>
           </cell>
           <cell r="B34" t="str">
-            <v>R$ 1.965,60</v>
+            <v>R$ 1.545,00</v>
           </cell>
           <cell r="C34" t="str">
-            <v>0,28%</v>
+            <v>0,22%</v>
           </cell>
           <cell r="D34" t="str">
-            <v>-50,58%</v>
+            <v>-61,16%</v>
           </cell>
           <cell r="E34" t="str">
             <v>R$ 66,29</v>
           </cell>
           <cell r="F34" t="str">
-            <v>R$ 32,76</v>
+            <v>R$ 25,75</v>
           </cell>
           <cell r="G34" t="str">
             <v>60</v>
@@ -3707,7 +2846,7 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>COE</v>
+            <v>Renda Fixa</v>
           </cell>
           <cell r="B37"/>
           <cell r="C37"/>
@@ -3715,7 +2854,7 @@
           <cell r="E37"/>
           <cell r="F37"/>
           <cell r="G37" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 13.391,12</v>
           </cell>
         </row>
         <row r="38">
@@ -3743,7 +2882,7 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>0,7% | Alternativos</v>
+            <v>1,9% | Inflação</v>
           </cell>
           <cell r="B39" t="str">
             <v>Posição</v>
@@ -3752,62 +2891,62 @@
             <v>% Alocação</v>
           </cell>
           <cell r="D39" t="str">
-            <v>Rendimento bruto</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="E39" t="str">
-            <v>Rentabilidade</v>
+            <v>Taxa</v>
           </cell>
           <cell r="F39" t="str">
-            <v>Valor aplicado</v>
+            <v>Data aplicação</v>
           </cell>
           <cell r="G39" t="str">
-            <v>Vencimento</v>
+            <v>Data vencimento</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
+            <v>CDB BMG - JUL/2023</v>
           </cell>
           <cell r="B40" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 6.987,50</v>
           </cell>
           <cell r="C40" t="str">
-            <v>0,71%</v>
+            <v>0,98%</v>
           </cell>
           <cell r="D40" t="str">
-            <v>R$ 0,00</v>
+            <v>R$ 6.000,00</v>
           </cell>
           <cell r="E40" t="str">
-            <v>0%</v>
+            <v>IPC-A + 4,15%</v>
           </cell>
           <cell r="F40" t="str">
-            <v>R$ 5.000,00</v>
+            <v>15/07/2021</v>
           </cell>
           <cell r="G40" t="str">
-            <v>04/04/2024</v>
+            <v>15/07/2023</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>CDB BMG - SET/2024</v>
           </cell>
           <cell r="B41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 6.403,62</v>
           </cell>
           <cell r="C41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,9%</v>
           </cell>
           <cell r="D41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="E41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>IPC-A + 3,65%</v>
           </cell>
           <cell r="F41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>24/09/2020</v>
           </cell>
           <cell r="G41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>23/09/2024</v>
           </cell>
         </row>
         <row r="42">
@@ -3835,107 +2974,107 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Renda Fixa</v>
-          </cell>
-          <cell r="B43"/>
-          <cell r="C43"/>
-          <cell r="D43"/>
-          <cell r="E43"/>
-          <cell r="F43"/>
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B43" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C43" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D43" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E43" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F43" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
           <cell r="G43" t="str">
-            <v>R$ 13.385,41</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
+            <v>COE</v>
+          </cell>
+          <cell r="B44"/>
+          <cell r="C44"/>
+          <cell r="D44"/>
+          <cell r="E44"/>
+          <cell r="F44"/>
           <cell r="G44" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 5.000,00</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>1,9% | Inflação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B45" t="str">
-            <v>Posição</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C45" t="str">
-            <v>% Alocação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D45" t="str">
-            <v>Valor aplicado</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E45" t="str">
-            <v>Taxa</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F45" t="str">
-            <v>Data aplicação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G45" t="str">
-            <v>Data vencimento</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>CDB BMG - JUL/2023</v>
+            <v>0,7% | Alternativos</v>
           </cell>
           <cell r="B46" t="str">
-            <v>R$ 6.974,47</v>
+            <v>Posição</v>
           </cell>
           <cell r="C46" t="str">
-            <v>0,99%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D46" t="str">
-            <v>R$ 6.000,00</v>
+            <v>Rendimento bruto</v>
           </cell>
           <cell r="E46" t="str">
-            <v>IPC-A + 4,15%</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="F46" t="str">
-            <v>15/07/2021</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="G46" t="str">
-            <v>15/07/2023</v>
+            <v>Vencimento</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>CDB BMG - SET/2024</v>
+            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
           </cell>
           <cell r="B47" t="str">
-            <v>R$ 6.410,94</v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="C47" t="str">
-            <v>0,91%</v>
+            <v>0,7%</v>
           </cell>
           <cell r="D47" t="str">
+            <v>R$ 0,00</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>0%</v>
+          </cell>
+          <cell r="F47" t="str">
             <v>R$ 5.000,00</v>
           </cell>
-          <cell r="E47" t="str">
-            <v>IPC-A + 3,65%</v>
-          </cell>
-          <cell r="F47" t="str">
-            <v>24/09/2020</v>
-          </cell>
           <cell r="G47" t="str">
-            <v>23/09/2024</v>
+            <v>04/04/2024</v>
           </cell>
         </row>
         <row r="48">
@@ -3981,314 +3120,6 @@
             <v xml:space="preserve"> </v>
           </cell>
           <cell r="G49" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>Dividendos, proventos e outras distribuições</v>
-          </cell>
-          <cell r="B50"/>
-          <cell r="C50"/>
-          <cell r="D50"/>
-          <cell r="E50"/>
-          <cell r="F50"/>
-          <cell r="G50"/>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B51" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C51" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D51" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E51" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F51" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G51" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>Proventos</v>
-          </cell>
-          <cell r="B52"/>
-          <cell r="C52"/>
-          <cell r="D52"/>
-          <cell r="E52"/>
-          <cell r="F52"/>
-          <cell r="G52"/>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B53" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C53" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D53" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E53" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F53" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G53" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>Fundos Imobiliários</v>
-          </cell>
-          <cell r="B54"/>
-          <cell r="C54"/>
-          <cell r="D54"/>
-          <cell r="E54"/>
-          <cell r="F54"/>
-          <cell r="G54" t="str">
-            <v>R$ 1.249,16</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B55" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C55" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D55" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E55" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F55" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G55" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>0,2% | Alternativos</v>
-          </cell>
-          <cell r="B56"/>
-          <cell r="C56" t="str">
-            <v>Provisionado</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>% Alocação</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>Valor provisionado</v>
-          </cell>
-          <cell r="F56" t="str">
-            <v>Evento</v>
-          </cell>
-          <cell r="G56" t="str">
-            <v>Previsão pagamento</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>VGIA11</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v/>
-          </cell>
-          <cell r="C57" t="str">
-            <v>7.348</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>0,18%</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>R$ 1.249,16</v>
-          </cell>
-          <cell r="F57" t="str">
-            <v>RENDIMENTO</v>
-          </cell>
-          <cell r="G57" t="str">
-            <v>17/08/2022</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B58" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C58" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D58" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E58" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F58" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G58" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>Ações</v>
-          </cell>
-          <cell r="B59"/>
-          <cell r="C59"/>
-          <cell r="D59"/>
-          <cell r="E59"/>
-          <cell r="F59"/>
-          <cell r="G59" t="str">
-            <v>R$ 3,25</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B60" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C60" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D60" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E60" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F60" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G60" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>0% | Renda Variável</v>
-          </cell>
-          <cell r="B61"/>
-          <cell r="C61" t="str">
-            <v>Provisionado</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>% Alocação</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>Valor provisionado</v>
-          </cell>
-          <cell r="F61" t="str">
-            <v>Evento</v>
-          </cell>
-          <cell r="G61" t="str">
-            <v>Previsão pagamento</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>AAPL34</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v/>
-          </cell>
-          <cell r="C62" t="str">
-            <v>41</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>0%</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>R$ 3,25</v>
-          </cell>
-          <cell r="F62" t="str">
-            <v>DIVIDENDO</v>
-          </cell>
-          <cell r="G62" t="str">
-            <v>17/08/2022</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B63" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C63" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D63" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E63" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F63" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G63" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>Custódia Remunerada</v>
-          </cell>
-          <cell r="B64"/>
-          <cell r="C64"/>
-          <cell r="D64"/>
-          <cell r="E64"/>
-          <cell r="F64"/>
-          <cell r="G64"/>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B65" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C65" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D65" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E65" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F65" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G65" t="str">
             <v xml:space="preserve"> </v>
           </cell>
         </row>
@@ -4622,72 +3453,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A30C492-F2A0-4C5E-82E0-D24C0A0E056E}">
   <dimension ref="B1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="str">
         <f>Planilha1!A3</f>
-        <v>16/08/2022</v>
+        <v>25/10/2022</v>
       </c>
       <c r="C2" s="3">
         <f>VALUE(Planilha1!B3)</f>
-        <v>123742.97</v>
+        <v>134118.67000000001</v>
       </c>
       <c r="D2" s="3">
         <f>VALUE(Planilha1!C3)</f>
-        <v>542476.77</v>
+        <v>547268.43999999994</v>
       </c>
       <c r="E2" s="3">
         <f>VALUE(Planilha1!D3)</f>
-        <v>14873.15</v>
+        <v>12803.15</v>
       </c>
       <c r="F2" s="3">
         <f>VALUE(Planilha1!E3)</f>
@@ -4695,23 +3526,23 @@
       </c>
       <c r="G2" s="3">
         <f>VALUE(Planilha1!F3)</f>
-        <v>13385.41</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f>Planilha1!G3</f>
-        <v>5.706,41</v>
+        <v>13391.12</v>
+      </c>
+      <c r="H2" s="7">
+        <f>VALUE(Planilha1!G3)</f>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <f>Planilha1!H3</f>
-        <v>4965.2700000000004</v>
+        <v>4095.19</v>
       </c>
       <c r="J2" s="3">
         <f>Planilha1!I3</f>
-        <v>92513.25</v>
+        <v>88790.422999999995</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(C2:J2)</f>
-        <v>796956.82000000007</v>
+        <v>805466.9929999999</v>
       </c>
     </row>
   </sheetData>
@@ -4723,69 +3554,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE36003-5C8F-40D3-B5B7-118FECE59CBE}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>RIGHT('[1]Sua carteira'!$F$1,16)</f>
-        <v>16/08/2022 07:04</v>
+        <v>25/10/2022 14:10</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>VLOOKUP(B1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 123.742,97</v>
+        <v>R$ 134.118,67</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(C1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 542.476,77</v>
+        <v>R$ 547.268,44</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(D1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 14.873,15</v>
+        <v>R$ 12.803,15</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(E1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
@@ -4793,35 +3624,35 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(F1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 13.385,41</v>
+        <v>R$ 13.391,12</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'[1]Sua carteira'!$C$4</f>
-        <v>R$ 5.706,41</v>
+        <v>R$ 0,00</v>
       </c>
       <c r="H2">
-        <v>4965.2700000000004</v>
+        <v>4095.19</v>
       </c>
       <c r="I2">
-        <v>18502.650000000001</v>
+        <v>16752.91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>LEFT(A2,10)</f>
-        <v>16/08/2022</v>
+        <v>25/10/2022</v>
       </c>
       <c r="B3" t="str">
         <f>MID(B2,4,10)</f>
-        <v>123.742,97</v>
+        <v>134.118,67</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:G3" si="0">MID(C2,4,10)</f>
-        <v>542.476,77</v>
+        <v>547.268,44</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>14.873,15</v>
+        <v>12.803,15</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -4829,26 +3660,26 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>13.385,41</v>
+        <v>13.391,12</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>5.706,41</v>
+        <v>0,00</v>
       </c>
       <c r="H3" s="6">
         <f>H2</f>
-        <v>4965.2700000000004</v>
+        <v>4095.19</v>
       </c>
       <c r="I3" s="6">
-        <f>I2*5</f>
-        <v>92513.25</v>
+        <f>I2*I4</f>
+        <v>88790.422999999995</v>
       </c>
       <c r="J3" s="3">
         <f>SUM(B3:I3)</f>
-        <v>97478.52</v>
+        <v>92885.612999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3"/>
@@ -4857,70 +3688,73 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>5.3</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
+      <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
   </sheetData>

--- a/infos.xlsx
+++ b/infos.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{A1D14EA8-7288-4578-9DBF-B2D9111ACCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E492FC29-DE3C-4839-B98A-34F14CF20DFB}"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6bb4f777028a843/Python/MeuProjeto/Projetos/dash_investimentos/Resumo_Investimentos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5E155710F301C74F8E6A82C51A9E03DD337E8AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7858C4-FEFF-4B52-86C4-C9D864AFE6D3}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="3" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$B$1:$I$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$B$3:$I$3</definedName>
-  </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -75,9 +76,9 @@
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,8 +115,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -124,9 +125,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -167,7 +168,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -191,29 +192,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -240,9 +221,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -253,7 +234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/10/2022</c:v>
+                  <c:v>31/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -270,7 +251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAC0-4FD9-8E7A-3AC559B77AE6}"/>
+              <c16:uniqueId val="{00000000-2B5A-4E42-BFBB-379DB7CE06BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -293,9 +274,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -306,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/10/2022</c:v>
+                  <c:v>31/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -326,7 +307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FAC0-4FD9-8E7A-3AC559B77AE6}"/>
+              <c16:uniqueId val="{00000001-2B5A-4E42-BFBB-379DB7CE06BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -349,9 +330,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -362,7 +343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/10/2022</c:v>
+                  <c:v>31/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -382,7 +363,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FAC0-4FD9-8E7A-3AC559B77AE6}"/>
+              <c16:uniqueId val="{00000002-2B5A-4E42-BFBB-379DB7CE06BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -405,9 +386,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -418,7 +399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/10/2022</c:v>
+                  <c:v>31/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -438,7 +419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FAC0-4FD9-8E7A-3AC559B77AE6}"/>
+              <c16:uniqueId val="{00000003-2B5A-4E42-BFBB-379DB7CE06BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -461,9 +442,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -474,7 +455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/10/2022</c:v>
+                  <c:v>31/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -494,7 +475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FAC0-4FD9-8E7A-3AC559B77AE6}"/>
+              <c16:uniqueId val="{00000004-2B5A-4E42-BFBB-379DB7CE06BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -517,9 +498,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -530,7 +511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/10/2022</c:v>
+                  <c:v>31/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -550,7 +531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FAC0-4FD9-8E7A-3AC559B77AE6}"/>
+              <c16:uniqueId val="{00000005-2B5A-4E42-BFBB-379DB7CE06BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -575,9 +556,9 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -588,7 +569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/10/2022</c:v>
+                  <c:v>31/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -600,7 +581,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4095.19</c:v>
+                  <c:v>4591.6263576542906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,7 +589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FAC0-4FD9-8E7A-3AC559B77AE6}"/>
+              <c16:uniqueId val="{00000006-2B5A-4E42-BFBB-379DB7CE06BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -633,9 +614,9 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -646,7 +627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25/10/2022</c:v>
+                  <c:v>31/10/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -658,10 +639,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>88790.422999999995</c:v>
+                  <c:v>84043.155925309882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3</c:v>
+                  <c:v>5.1204000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +650,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FAC0-4FD9-8E7A-3AC559B77AE6}"/>
+              <c16:uniqueId val="{00000007-2B5A-4E42-BFBB-379DB7CE06BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -705,16 +686,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -752,9 +733,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -765,15 +746,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -792,13 +773,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -807,15 +781,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -833,1195 +807,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="treemap" uniqueId="{FF3E8428-8746-42D5-9DBC-5F55A1C2AF6D}">
-          <cx:dataLabels pos="inEnd">
-            <cx:visibility seriesName="0" categoryName="1" value="0"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:parentLabelLayout val="overlapping"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2041,10 +834,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337B53B6-B7E6-DD07-F84F-783F876233EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,84 +855,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>100011</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>876299</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Gráfico 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A03639A-C15A-862D-1A9C-043630134841}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="100011" y="10634662"/>
-              <a:ext cx="9253538" cy="2757488"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Este gráfico não está disponível na sua versão de Excel.
-Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2153,7 +868,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="F1" t="str">
-            <v>Conta: 2563257 | 25/10/2022 14:10</v>
+            <v>Conta: 2563257 | 31/10/2022 18:08</v>
           </cell>
         </row>
         <row r="4">
@@ -2163,7 +878,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Fundos Imobiliários</v>
+            <v>Fundos de Investimentos</v>
           </cell>
           <cell r="B6"/>
           <cell r="C6"/>
@@ -2171,7 +886,7 @@
           <cell r="E6"/>
           <cell r="F6"/>
           <cell r="G6" t="str">
-            <v>R$ 547.268,44</v>
+            <v>R$ 134.390,28</v>
           </cell>
         </row>
         <row r="7">
@@ -2199,7 +914,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>76,8% | Renda Variável</v>
+            <v>18,9% | Pós-Fixado</v>
           </cell>
           <cell r="B8" t="str">
             <v>Posição</v>
@@ -2208,223 +923,213 @@
             <v>% Alocação</v>
           </cell>
           <cell r="D8" t="str">
-            <v>Rentabilidade c/ proventos</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="E8" t="str">
-            <v>Preço médio (abertura)</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="F8" t="str">
-            <v>Última cotação</v>
+            <v>Valor líquido</v>
           </cell>
           <cell r="G8" t="str">
-            <v>Qtd. total</v>
+            <v>Data da cota</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>BLMR11</v>
+            <v>Trend DI Simples FIRF</v>
           </cell>
           <cell r="B9" t="str">
-            <v>R$ 76.200,00</v>
+            <v>R$ 133.529,94</v>
           </cell>
           <cell r="C9" t="str">
-            <v>10,69%</v>
+            <v>18,81%</v>
           </cell>
           <cell r="D9" t="str">
-            <v>7,43%</v>
+            <v>5,2%</v>
           </cell>
           <cell r="E9" t="str">
-            <v>R$ 7,51</v>
+            <v>R$ 126.927,18</v>
           </cell>
           <cell r="F9" t="str">
-            <v>R$ 7,62</v>
+            <v>R$ 132.042,18</v>
           </cell>
           <cell r="G9" t="str">
-            <v>10.000</v>
+            <v>31/10/2022</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>VGIA11</v>
+            <v>Trend Investback FIC FIRF Simples</v>
           </cell>
           <cell r="B10" t="str">
-            <v>R$ 76.198,76</v>
+            <v>R$ 860,34</v>
           </cell>
           <cell r="C10" t="str">
-            <v>10,69%</v>
+            <v>0,12%</v>
           </cell>
           <cell r="D10" t="str">
-            <v>8,97%</v>
+            <v>7,59%</v>
           </cell>
           <cell r="E10" t="str">
-            <v>R$ 10,26</v>
+            <v>R$ 799,62</v>
           </cell>
           <cell r="F10" t="str">
-            <v>R$ 10,37</v>
+            <v>R$ 852,57</v>
           </cell>
           <cell r="G10" t="str">
-            <v>7.348</v>
+            <v>31/10/2022</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>RZTR11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B11" t="str">
-            <v>R$ 66.074,40</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C11" t="str">
-            <v>9,27%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D11" t="str">
-            <v>7,92%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E11" t="str">
-            <v>R$ 102,97</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F11" t="str">
-            <v>R$ 104,88</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G11" t="str">
-            <v>630</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>RBRR11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B12" t="str">
-            <v>R$ 61.056,57</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C12" t="str">
-            <v>8,57%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D12" t="str">
-            <v>-1,54%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E12" t="str">
-            <v>R$ 100,38</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F12" t="str">
-            <v>R$ 92,37</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G12" t="str">
-            <v>661</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LVBI11</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>R$ 59.861,15</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>8,4%</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>18,12%</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>R$ 98,50</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>R$ 111,89</v>
-          </cell>
+            <v>COE</v>
+          </cell>
+          <cell r="B13"/>
+          <cell r="C13"/>
+          <cell r="D13"/>
+          <cell r="E13"/>
+          <cell r="F13"/>
           <cell r="G13" t="str">
-            <v>535</v>
+            <v>R$ 5.000,00</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>BRCO11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B14" t="str">
-            <v>R$ 56.094,90</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C14" t="str">
-            <v>7,87%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D14" t="str">
-            <v>14,28%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E14" t="str">
-            <v>R$ 99,28</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F14" t="str">
-            <v>R$ 109,99</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G14" t="str">
-            <v>510</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>PVBI11</v>
+            <v>0,7% | Alternativos</v>
           </cell>
           <cell r="B15" t="str">
-            <v>R$ 53.534,52</v>
+            <v>Posição</v>
           </cell>
           <cell r="C15" t="str">
-            <v>7,51%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D15" t="str">
-            <v>6,02%</v>
+            <v>Rendimento bruto</v>
           </cell>
           <cell r="E15" t="str">
-            <v>R$ 93,67</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="F15" t="str">
-            <v>R$ 95,94</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="G15" t="str">
-            <v>558</v>
+            <v>Vencimento</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>WHGR11</v>
+            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
           </cell>
           <cell r="B16" t="str">
-            <v>R$ 53.216,40</v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="C16" t="str">
-            <v>7,47%</v>
+            <v>0,7%</v>
           </cell>
           <cell r="D16" t="str">
-            <v>-7,31%</v>
+            <v>R$ 0,00</v>
           </cell>
           <cell r="E16" t="str">
-            <v>R$ 10,31</v>
+            <v>0%</v>
           </cell>
           <cell r="F16" t="str">
-            <v>R$ 9,15</v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="G16" t="str">
-            <v>5.816</v>
+            <v>04/04/2024</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>FGAA11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B17" t="str">
-            <v>R$ 45.031,74</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C17" t="str">
-            <v>6,32%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D17" t="str">
-            <v>7,13%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E17" t="str">
-            <v>R$ 10,31</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F17" t="str">
-            <v>R$ 10,14</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G17" t="str">
-            <v>4.441</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="18">
@@ -2452,409 +1157,419 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B19" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C19" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D19" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E19" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F19" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
+            <v>Fundos Imobiliários</v>
+          </cell>
+          <cell r="B19"/>
+          <cell r="C19"/>
+          <cell r="D19"/>
+          <cell r="E19"/>
+          <cell r="F19"/>
           <cell r="G19" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 545.032,14</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Fundos de Investimentos</v>
-          </cell>
-          <cell r="B20"/>
-          <cell r="C20"/>
-          <cell r="D20"/>
-          <cell r="E20"/>
-          <cell r="F20"/>
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B20" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C20" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D20" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E20" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F20" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
           <cell r="G20" t="str">
-            <v>R$ 134.118,67</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>76,8% | Renda Variável</v>
           </cell>
           <cell r="B21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Posição</v>
           </cell>
           <cell r="C21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Rentabilidade c/ proventos</v>
           </cell>
           <cell r="E21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Preço médio (abertura)</v>
           </cell>
           <cell r="F21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Última cotação</v>
           </cell>
           <cell r="G21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>18,8% | Pós-Fixado</v>
+            <v>VGIA11</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Posição</v>
+            <v>R$ 76.419,20</v>
           </cell>
           <cell r="C22" t="str">
-            <v>% Alocação</v>
+            <v>10,77%</v>
           </cell>
           <cell r="D22" t="str">
-            <v>Rentabilidade</v>
+            <v>9,26%</v>
           </cell>
           <cell r="E22" t="str">
-            <v>Valor aplicado</v>
+            <v>R$ 10,26</v>
           </cell>
           <cell r="F22" t="str">
-            <v>Valor líquido</v>
+            <v>R$ 10,40</v>
           </cell>
           <cell r="G22" t="str">
-            <v>Data da cota</v>
+            <v>7.348</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Trend DI Simples FIRF</v>
+            <v>BLMR11</v>
           </cell>
           <cell r="B23" t="str">
-            <v>R$ 133.260,07</v>
+            <v>R$ 75.500,00</v>
           </cell>
           <cell r="C23" t="str">
-            <v>18,7%</v>
+            <v>10,64%</v>
           </cell>
           <cell r="D23" t="str">
-            <v>4,99%</v>
+            <v>6,5%</v>
           </cell>
           <cell r="E23" t="str">
-            <v>R$ 126.927,18</v>
+            <v>R$ 7,51</v>
           </cell>
           <cell r="F23" t="str">
-            <v>R$ 131.833,03</v>
+            <v>R$ 7,55</v>
           </cell>
           <cell r="G23" t="str">
-            <v>25/10/2022</v>
+            <v>10.000</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Trend Investback FIC FIRF Simples</v>
+            <v>RZTR11</v>
           </cell>
           <cell r="B24" t="str">
-            <v>R$ 858,60</v>
+            <v>R$ 65.853,90</v>
           </cell>
           <cell r="C24" t="str">
-            <v>0,12%</v>
+            <v>9,28%</v>
           </cell>
           <cell r="D24" t="str">
-            <v>7,38%</v>
+            <v>7,58%</v>
           </cell>
           <cell r="E24" t="str">
-            <v>R$ 799,62</v>
+            <v>R$ 102,97</v>
           </cell>
           <cell r="F24" t="str">
-            <v>R$ 850,94</v>
+            <v>R$ 104,53</v>
           </cell>
           <cell r="G24" t="str">
-            <v>25/10/2022</v>
+            <v>630</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v xml:space="preserve"> </v>
+            <v>RBRR11</v>
           </cell>
           <cell r="B25" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 60.289,81</v>
           </cell>
           <cell r="C25" t="str">
-            <v xml:space="preserve"> </v>
+            <v>8,49%</v>
           </cell>
           <cell r="D25" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-2,69%</v>
           </cell>
           <cell r="E25" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 100,38</v>
           </cell>
           <cell r="F25" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 91,21</v>
           </cell>
           <cell r="G25" t="str">
-            <v xml:space="preserve"> </v>
+            <v>661</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>LVBI11</v>
           </cell>
           <cell r="B26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 59.278,00</v>
           </cell>
           <cell r="C26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>8,35%</v>
           </cell>
           <cell r="D26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>17,01%</v>
           </cell>
           <cell r="E26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 98,50</v>
           </cell>
           <cell r="F26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 110,80</v>
           </cell>
           <cell r="G26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>535</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Ações</v>
-          </cell>
-          <cell r="B27"/>
-          <cell r="C27"/>
-          <cell r="D27"/>
-          <cell r="E27"/>
-          <cell r="F27"/>
+            <v>BRCO11</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>R$ 55.947,00</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>7,88%</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>13,99%</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>R$ 99,28</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>R$ 109,70</v>
+          </cell>
           <cell r="G27" t="str">
-            <v>R$ 12.803,15</v>
+            <v>510</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v xml:space="preserve"> </v>
+            <v>PVBI11</v>
           </cell>
           <cell r="B28" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 53.568,00</v>
           </cell>
           <cell r="C28" t="str">
-            <v xml:space="preserve"> </v>
+            <v>7,55%</v>
           </cell>
           <cell r="D28" t="str">
-            <v xml:space="preserve"> </v>
+            <v>6,08%</v>
           </cell>
           <cell r="E28" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 93,67</v>
           </cell>
           <cell r="F28" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 96,00</v>
           </cell>
           <cell r="G28" t="str">
-            <v xml:space="preserve"> </v>
+            <v>558</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>1,8% | Renda Variável</v>
+            <v>WHGR11</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Posição</v>
+            <v>R$ 53.100,08</v>
           </cell>
           <cell r="C29" t="str">
-            <v>% Alocação</v>
+            <v>7,48%</v>
           </cell>
           <cell r="D29" t="str">
-            <v>Rentabilidade (%)</v>
+            <v>-7,5%</v>
           </cell>
           <cell r="E29" t="str">
-            <v>Preço médio</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F29" t="str">
-            <v>Último preço (R$)</v>
+            <v>R$ 9,13</v>
           </cell>
           <cell r="G29" t="str">
-            <v>Qtd. total</v>
+            <v>5.816</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>AAPL34</v>
+            <v>FGAA11</v>
           </cell>
           <cell r="B30" t="str">
-            <v>R$ 3.295,17</v>
+            <v>R$ 45.076,15</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0,46%</v>
+            <v>6,35%</v>
           </cell>
           <cell r="D30" t="str">
-            <v>-17,54%</v>
+            <v>7,23%</v>
           </cell>
           <cell r="E30" t="str">
-            <v>R$ 97,47</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F30" t="str">
-            <v>R$ 80,37</v>
+            <v>R$ 10,15</v>
           </cell>
           <cell r="G30" t="str">
-            <v>41</v>
+            <v>4.441</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>XPBR31</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B31" t="str">
-            <v>R$ 3.095,36</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C31" t="str">
-            <v>0,43%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D31" t="str">
-            <v>-38,21%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E31" t="str">
-            <v>R$ 156,54</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F31" t="str">
-            <v>R$ 96,73</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G31" t="str">
-            <v>32</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>GOGL34</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B32" t="str">
-            <v>R$ 2.732,40</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C32" t="str">
-            <v>0,38%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D32" t="str">
-            <v>-30,53%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E32" t="str">
-            <v>R$ 65,56</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F32" t="str">
-            <v>R$ 45,54</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G32" t="str">
-            <v>60</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>HASH11</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>R$ 2.135,22</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>0,3%</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>-57,33%</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>R$ 43,89</v>
-          </cell>
-          <cell r="F33" t="str">
-            <v>R$ 18,73</v>
-          </cell>
+            <v>Renda Fixa</v>
+          </cell>
+          <cell r="B33"/>
+          <cell r="C33"/>
+          <cell r="D33"/>
+          <cell r="E33"/>
+          <cell r="F33"/>
           <cell r="G33" t="str">
-            <v>114</v>
+            <v>R$ 13.413,30</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>M1TA34</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B34" t="str">
-            <v>R$ 1.545,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C34" t="str">
-            <v>0,22%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D34" t="str">
-            <v>-61,16%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E34" t="str">
-            <v>R$ 66,29</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F34" t="str">
-            <v>R$ 25,75</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G34" t="str">
-            <v>60</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v xml:space="preserve"> </v>
+            <v>1,9% | Inflação</v>
           </cell>
           <cell r="B35" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Posição</v>
           </cell>
           <cell r="C35" t="str">
-            <v xml:space="preserve"> </v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D35" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="E35" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Taxa</v>
           </cell>
           <cell r="F35" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Data aplicação</v>
           </cell>
           <cell r="G35" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Data vencimento</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>CDB BMG - JUL/2023</v>
           </cell>
           <cell r="B36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 7.000,05</v>
           </cell>
           <cell r="C36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,99%</v>
           </cell>
           <cell r="D36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 6.000,00</v>
           </cell>
           <cell r="E36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>IPC-A + 4,15%</v>
           </cell>
           <cell r="F36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>15/07/2021</v>
           </cell>
           <cell r="G36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>15/07/2023</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Renda Fixa</v>
-          </cell>
-          <cell r="B37"/>
-          <cell r="C37"/>
-          <cell r="D37"/>
-          <cell r="E37"/>
-          <cell r="F37"/>
+            <v>CDB BMG - SET/2024</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>R$ 6.413,25</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>0,9%</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>R$ 5.000,00</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>IPC-A + 3,65%</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>24/09/2020</v>
+          </cell>
           <cell r="G37" t="str">
-            <v>R$ 13.391,12</v>
+            <v>23/09/2024</v>
           </cell>
         </row>
         <row r="38">
@@ -2882,199 +1597,199 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>1,9% | Inflação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B39" t="str">
-            <v>Posição</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C39" t="str">
-            <v>% Alocação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D39" t="str">
-            <v>Valor aplicado</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E39" t="str">
-            <v>Taxa</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F39" t="str">
-            <v>Data aplicação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G39" t="str">
-            <v>Data vencimento</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>CDB BMG - JUL/2023</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>R$ 6.987,50</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>0,98%</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>R$ 6.000,00</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>IPC-A + 4,15%</v>
-          </cell>
-          <cell r="F40" t="str">
-            <v>15/07/2021</v>
-          </cell>
+            <v>Ações</v>
+          </cell>
+          <cell r="B40"/>
+          <cell r="C40"/>
+          <cell r="D40"/>
+          <cell r="E40"/>
+          <cell r="F40"/>
           <cell r="G40" t="str">
-            <v>15/07/2023</v>
+            <v>R$ 11.959,95</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>CDB BMG - SET/2024</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B41" t="str">
-            <v>R$ 6.403,62</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C41" t="str">
-            <v>0,9%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D41" t="str">
-            <v>R$ 5.000,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E41" t="str">
-            <v>IPC-A + 3,65%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F41" t="str">
-            <v>24/09/2020</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G41" t="str">
-            <v>23/09/2024</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v xml:space="preserve"> </v>
+            <v>1,7% | Renda Variável</v>
           </cell>
           <cell r="B42" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Posição</v>
           </cell>
           <cell r="C42" t="str">
-            <v xml:space="preserve"> </v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D42" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Rentabilidade (%)</v>
           </cell>
           <cell r="E42" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Preço médio</v>
           </cell>
           <cell r="F42" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Último preço (R$)</v>
           </cell>
           <cell r="G42" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>AAPL34</v>
           </cell>
           <cell r="B43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 3.254,17</v>
           </cell>
           <cell r="C43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,46%</v>
           </cell>
           <cell r="D43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-18,57%</v>
           </cell>
           <cell r="E43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 97,47</v>
           </cell>
           <cell r="F43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 79,37</v>
           </cell>
           <cell r="G43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>41</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>COE</v>
-          </cell>
-          <cell r="B44"/>
-          <cell r="C44"/>
-          <cell r="D44"/>
-          <cell r="E44"/>
-          <cell r="F44"/>
+            <v>XPBR31</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>R$ 3.019,52</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>0,43%</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>-39,72%</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>R$ 156,54</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>R$ 94,36</v>
+          </cell>
           <cell r="G44" t="str">
-            <v>R$ 5.000,00</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>GOGL34</v>
           </cell>
           <cell r="B45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 2.460,00</v>
           </cell>
           <cell r="C45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,35%</v>
           </cell>
           <cell r="D45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-37,46%</v>
           </cell>
           <cell r="E45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 65,56</v>
           </cell>
           <cell r="F45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 41,00</v>
           </cell>
           <cell r="G45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>60</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>0,7% | Alternativos</v>
+            <v>HASH11</v>
           </cell>
           <cell r="B46" t="str">
-            <v>Posição</v>
+            <v>R$ 2.187,66</v>
           </cell>
           <cell r="C46" t="str">
-            <v>% Alocação</v>
+            <v>0,31%</v>
           </cell>
           <cell r="D46" t="str">
-            <v>Rendimento bruto</v>
+            <v>-56,28%</v>
           </cell>
           <cell r="E46" t="str">
-            <v>Rentabilidade</v>
+            <v>R$ 43,89</v>
           </cell>
           <cell r="F46" t="str">
-            <v>Valor aplicado</v>
+            <v>R$ 19,19</v>
           </cell>
           <cell r="G46" t="str">
-            <v>Vencimento</v>
+            <v>114</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
+            <v>M1TA34</v>
           </cell>
           <cell r="B47" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 1.038,60</v>
           </cell>
           <cell r="C47" t="str">
-            <v>0,7%</v>
+            <v>0,15%</v>
           </cell>
           <cell r="D47" t="str">
-            <v>R$ 0,00</v>
+            <v>-73,89%</v>
           </cell>
           <cell r="E47" t="str">
-            <v>0%</v>
+            <v>R$ 66,29</v>
           </cell>
           <cell r="F47" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 17,31</v>
           </cell>
           <cell r="G47" t="str">
-            <v>04/04/2024</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="48">
@@ -3450,10 +2165,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A30C492-F2A0-4C5E-82E0-D24C0A0E056E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -3506,19 +2221,19 @@
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="str">
         <f>Planilha1!A3</f>
-        <v>25/10/2022</v>
+        <v>31/10/2022</v>
       </c>
       <c r="C2" s="3">
         <f>VALUE(Planilha1!B3)</f>
-        <v>134118.67000000001</v>
+        <v>134390.28</v>
       </c>
       <c r="D2" s="3">
         <f>VALUE(Planilha1!C3)</f>
-        <v>547268.43999999994</v>
+        <v>545032.14</v>
       </c>
       <c r="E2" s="3">
         <f>VALUE(Planilha1!D3)</f>
-        <v>12803.15</v>
+        <v>11959.95</v>
       </c>
       <c r="F2" s="3">
         <f>VALUE(Planilha1!E3)</f>
@@ -3526,7 +2241,7 @@
       </c>
       <c r="G2" s="3">
         <f>VALUE(Planilha1!F3)</f>
-        <v>13391.12</v>
+        <v>13413.3</v>
       </c>
       <c r="H2" s="7">
         <f>VALUE(Planilha1!G3)</f>
@@ -3534,15 +2249,15 @@
       </c>
       <c r="I2" s="3">
         <f>Planilha1!H3</f>
-        <v>4095.19</v>
+        <v>4591.6263576542906</v>
       </c>
       <c r="J2" s="3">
         <f>Planilha1!I3</f>
-        <v>88790.422999999995</v>
+        <v>84043.155925309882</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(C2:J2)</f>
-        <v>805466.9929999999</v>
+        <v>798430.45228296425</v>
       </c>
     </row>
   </sheetData>
@@ -3551,11 +2266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE36003-5C8F-40D3-B5B7-118FECE59CBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,19 +2319,19 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>RIGHT('[1]Sua carteira'!$F$1,16)</f>
-        <v>25/10/2022 14:10</v>
+        <v>31/10/2022 18:08</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>VLOOKUP(B1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 134.118,67</v>
+        <v>R$ 134.390,28</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(C1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 547.268,44</v>
+        <v>R$ 545.032,14</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(D1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 12.803,15</v>
+        <v>R$ 11.959,95</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(E1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
@@ -3624,35 +2339,35 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(F1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 13.391,12</v>
+        <v>R$ 13.413,30</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'[1]Sua carteira'!$C$4</f>
         <v>R$ 0,00</v>
       </c>
       <c r="H2">
-        <v>4095.19</v>
+        <v>4591.6263576542906</v>
       </c>
       <c r="I2">
-        <v>16752.91</v>
+        <v>16413.396595053098</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>LEFT(A2,10)</f>
-        <v>25/10/2022</v>
+        <v>31/10/2022</v>
       </c>
       <c r="B3" t="str">
-        <f>MID(B2,4,10)</f>
-        <v>134.118,67</v>
+        <f t="shared" ref="B3:G3" si="0">MID(B2,4,10)</f>
+        <v>134.390,28</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:G3" si="0">MID(C2,4,10)</f>
-        <v>547.268,44</v>
+        <f t="shared" si="0"/>
+        <v>545.032,14</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>12.803,15</v>
+        <v>11.959,95</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -3660,7 +2375,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>13.391,12</v>
+        <v>13.413,30</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -3668,15 +2383,15 @@
       </c>
       <c r="H3" s="6">
         <f>H2</f>
-        <v>4095.19</v>
+        <v>4591.6263576542906</v>
       </c>
       <c r="I3" s="6">
         <f>I2*I4</f>
-        <v>88790.422999999995</v>
+        <v>84043.155925309882</v>
       </c>
       <c r="J3" s="3">
         <f>SUM(B3:I3)</f>
-        <v>92885.612999999998</v>
+        <v>88634.782282964166</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3689,7 +2404,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>5.3</v>
+        <v>5.1204000000000001</v>
       </c>
       <c r="J4" s="3"/>
     </row>

--- a/infos.xlsx
+++ b/infos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6bb4f777028a843/Python/MeuProjeto/Projetos/dash_investimentos/Resumo_Investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5E155710F301C74F8E6A82C51A9E03DD337E8AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7858C4-FEFF-4B52-86C4-C9D864AFE6D3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_41015610E8E9859ED3553A0719AD0717D127FD23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FC3248-213D-4FCD-9532-2ACCC0657F76}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/10/2022</c:v>
+                  <c:v>10/11/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -251,7 +251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B5A-4E42-BFBB-379DB7CE06BC}"/>
+              <c16:uniqueId val="{00000000-3940-441E-A8B1-283E247D9EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -287,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/10/2022</c:v>
+                  <c:v>10/11/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -307,7 +307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B5A-4E42-BFBB-379DB7CE06BC}"/>
+              <c16:uniqueId val="{00000001-3940-441E-A8B1-283E247D9EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -343,7 +343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/10/2022</c:v>
+                  <c:v>10/11/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -363,7 +363,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B5A-4E42-BFBB-379DB7CE06BC}"/>
+              <c16:uniqueId val="{00000002-3940-441E-A8B1-283E247D9EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -399,7 +399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/10/2022</c:v>
+                  <c:v>10/11/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -419,7 +419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2B5A-4E42-BFBB-379DB7CE06BC}"/>
+              <c16:uniqueId val="{00000003-3940-441E-A8B1-283E247D9EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -455,7 +455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/10/2022</c:v>
+                  <c:v>10/11/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -475,7 +475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2B5A-4E42-BFBB-379DB7CE06BC}"/>
+              <c16:uniqueId val="{00000004-3940-441E-A8B1-283E247D9EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -511,7 +511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/10/2022</c:v>
+                  <c:v>10/11/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,7 +531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2B5A-4E42-BFBB-379DB7CE06BC}"/>
+              <c16:uniqueId val="{00000005-3940-441E-A8B1-283E247D9EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,7 +569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/10/2022</c:v>
+                  <c:v>10/11/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -581,7 +581,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4591.6263576542906</c:v>
+                  <c:v>4212.6251040590705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,7 +589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2B5A-4E42-BFBB-379DB7CE06BC}"/>
+              <c16:uniqueId val="{00000006-3940-441E-A8B1-283E247D9EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -627,7 +627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/10/2022</c:v>
+                  <c:v>10/11/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -639,10 +639,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>84043.155925309882</c:v>
+                  <c:v>84465.147994884668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1204000000000001</c:v>
+                  <c:v>5.3579999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +650,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2B5A-4E42-BFBB-379DB7CE06BC}"/>
+              <c16:uniqueId val="{00000007-3940-441E-A8B1-283E247D9EC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -868,17 +868,17 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="F1" t="str">
-            <v>Conta: 2563257 | 31/10/2022 18:08</v>
+            <v>Conta: 2563257 | 10/11/2022 18:05</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>R$ 0,00</v>
+            <v>R$ 1.506,81</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Fundos de Investimentos</v>
+            <v>Fundos Imobiliários</v>
           </cell>
           <cell r="B6"/>
           <cell r="C6"/>
@@ -886,7 +886,7 @@
           <cell r="E6"/>
           <cell r="F6"/>
           <cell r="G6" t="str">
-            <v>R$ 134.390,28</v>
+            <v>R$ 531.655,78</v>
           </cell>
         </row>
         <row r="7">
@@ -914,7 +914,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>18,9% | Pós-Fixado</v>
+            <v>75,8% | Renda Variável</v>
           </cell>
           <cell r="B8" t="str">
             <v>Posição</v>
@@ -923,249 +923,269 @@
             <v>% Alocação</v>
           </cell>
           <cell r="D8" t="str">
-            <v>Rentabilidade</v>
+            <v>Rentabilidade c/ proventos</v>
           </cell>
           <cell r="E8" t="str">
-            <v>Valor aplicado</v>
+            <v>Preço médio (abertura)</v>
           </cell>
           <cell r="F8" t="str">
-            <v>Valor líquido</v>
+            <v>Última cotação</v>
           </cell>
           <cell r="G8" t="str">
-            <v>Data da cota</v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Trend DI Simples FIRF</v>
+            <v>VGIA11</v>
           </cell>
           <cell r="B9" t="str">
-            <v>R$ 133.529,94</v>
+            <v>R$ 76.639,64</v>
           </cell>
           <cell r="C9" t="str">
-            <v>18,81%</v>
+            <v>10,93%</v>
           </cell>
           <cell r="D9" t="str">
-            <v>5,2%</v>
+            <v>9,56%</v>
           </cell>
           <cell r="E9" t="str">
-            <v>R$ 126.927,18</v>
+            <v>R$ 10,26</v>
           </cell>
           <cell r="F9" t="str">
-            <v>R$ 132.042,18</v>
+            <v>R$ 10,43</v>
           </cell>
           <cell r="G9" t="str">
-            <v>31/10/2022</v>
+            <v>7.348</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Trend Investback FIC FIRF Simples</v>
+            <v>BLMR11</v>
           </cell>
           <cell r="B10" t="str">
-            <v>R$ 860,34</v>
+            <v>R$ 73.400,00</v>
           </cell>
           <cell r="C10" t="str">
-            <v>0,12%</v>
+            <v>10,47%</v>
           </cell>
           <cell r="D10" t="str">
-            <v>7,59%</v>
+            <v>4,7%</v>
           </cell>
           <cell r="E10" t="str">
-            <v>R$ 799,62</v>
+            <v>R$ 7,51</v>
           </cell>
           <cell r="F10" t="str">
-            <v>R$ 852,57</v>
+            <v>R$ 7,34</v>
           </cell>
           <cell r="G10" t="str">
-            <v>31/10/2022</v>
+            <v>10.000</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>RZTR11</v>
           </cell>
           <cell r="B11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 63.882,00</v>
           </cell>
           <cell r="C11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>9,11%</v>
           </cell>
           <cell r="D11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>5,76%</v>
           </cell>
           <cell r="E11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 102,97</v>
           </cell>
           <cell r="F11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 101,40</v>
           </cell>
           <cell r="G11" t="str">
-            <v xml:space="preserve"> </v>
+            <v>630</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>RBRR11</v>
           </cell>
           <cell r="B12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 58.240,71</v>
           </cell>
           <cell r="C12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>8,31%</v>
           </cell>
           <cell r="D12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-5,78%</v>
           </cell>
           <cell r="E12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 100,38</v>
           </cell>
           <cell r="F12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 88,11</v>
           </cell>
           <cell r="G12" t="str">
-            <v xml:space="preserve"> </v>
+            <v>661</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>COE</v>
-          </cell>
-          <cell r="B13"/>
-          <cell r="C13"/>
-          <cell r="D13"/>
-          <cell r="E13"/>
-          <cell r="F13"/>
+            <v>LVBI11</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>R$ 56.084,05</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>8%</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>11,71%</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>R$ 98,50</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>R$ 104,83</v>
+          </cell>
           <cell r="G13" t="str">
-            <v>R$ 5.000,00</v>
+            <v>535</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>BRCO11</v>
           </cell>
           <cell r="B14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 55.243,20</v>
           </cell>
           <cell r="C14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>7,88%</v>
           </cell>
           <cell r="D14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>13,3%</v>
           </cell>
           <cell r="E14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 99,28</v>
           </cell>
           <cell r="F14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 108,32</v>
           </cell>
           <cell r="G14" t="str">
-            <v xml:space="preserve"> </v>
+            <v>510</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>0,7% | Alternativos</v>
+            <v>PVBI11</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Posição</v>
+            <v>R$ 53.010,00</v>
           </cell>
           <cell r="C15" t="str">
-            <v>% Alocação</v>
+            <v>7,56%</v>
           </cell>
           <cell r="D15" t="str">
-            <v>Rendimento bruto</v>
+            <v>5,62%</v>
           </cell>
           <cell r="E15" t="str">
-            <v>Rentabilidade</v>
+            <v>R$ 93,67</v>
           </cell>
           <cell r="F15" t="str">
-            <v>Valor aplicado</v>
+            <v>R$ 95,00</v>
           </cell>
           <cell r="G15" t="str">
-            <v>Vencimento</v>
+            <v>558</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
+            <v>WHGR11</v>
           </cell>
           <cell r="B16" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 50.657,36</v>
           </cell>
           <cell r="C16" t="str">
-            <v>0,7%</v>
+            <v>7,23%</v>
           </cell>
           <cell r="D16" t="str">
-            <v>R$ 0,00</v>
+            <v>-10,9%</v>
           </cell>
           <cell r="E16" t="str">
-            <v>0%</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F16" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 8,71</v>
           </cell>
           <cell r="G16" t="str">
-            <v>04/04/2024</v>
+            <v>5.816</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v xml:space="preserve"> </v>
+            <v>FGAA11</v>
           </cell>
           <cell r="B17" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 44.498,82</v>
           </cell>
           <cell r="C17" t="str">
-            <v xml:space="preserve"> </v>
+            <v>6,35%</v>
           </cell>
           <cell r="D17" t="str">
-            <v xml:space="preserve"> </v>
+            <v>7,52%</v>
           </cell>
           <cell r="E17" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F17" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 10,02</v>
           </cell>
           <cell r="G17" t="str">
-            <v xml:space="preserve"> </v>
+            <v>4.441</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v xml:space="preserve"> </v>
+            <v>PVBI12</v>
           </cell>
           <cell r="B18" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 0,00</v>
           </cell>
           <cell r="C18" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0%</v>
           </cell>
           <cell r="D18" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-</v>
           </cell>
           <cell r="E18" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Indefinido</v>
           </cell>
           <cell r="F18" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 0,00</v>
           </cell>
           <cell r="G18" t="str">
-            <v xml:space="preserve"> </v>
+            <v>196</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Fundos Imobiliários</v>
-          </cell>
-          <cell r="B19"/>
-          <cell r="C19"/>
-          <cell r="D19"/>
-          <cell r="E19"/>
-          <cell r="F19"/>
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B19" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C19" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D19" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E19" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F19" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
           <cell r="G19" t="str">
-            <v>R$ 545.032,14</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="20">
@@ -1193,406 +1213,386 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>76,8% | Renda Variável</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Posição</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>% Alocação</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>Rentabilidade c/ proventos</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>Preço médio (abertura)</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>Última cotação</v>
-          </cell>
+            <v>Fundos de Investimentos</v>
+          </cell>
+          <cell r="B21"/>
+          <cell r="C21"/>
+          <cell r="D21"/>
+          <cell r="E21"/>
+          <cell r="F21"/>
           <cell r="G21" t="str">
-            <v>Qtd. total</v>
+            <v>R$ 134.921,02</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>VGIA11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B22" t="str">
-            <v>R$ 76.419,20</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C22" t="str">
-            <v>10,77%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D22" t="str">
-            <v>9,26%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E22" t="str">
-            <v>R$ 10,26</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F22" t="str">
-            <v>R$ 10,40</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G22" t="str">
-            <v>7.348</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>BLMR11</v>
+            <v>19,2% | Pós-Fixado</v>
           </cell>
           <cell r="B23" t="str">
-            <v>R$ 75.500,00</v>
+            <v>Posição</v>
           </cell>
           <cell r="C23" t="str">
-            <v>10,64%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D23" t="str">
-            <v>6,5%</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="E23" t="str">
-            <v>R$ 7,51</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="F23" t="str">
-            <v>R$ 7,55</v>
+            <v>Valor líquido</v>
           </cell>
           <cell r="G23" t="str">
-            <v>10.000</v>
+            <v>Data da cota</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>RZTR11</v>
+            <v>Trend DI Simples FIRF</v>
           </cell>
           <cell r="B24" t="str">
-            <v>R$ 65.853,90</v>
+            <v>R$ 134.003,70</v>
           </cell>
           <cell r="C24" t="str">
-            <v>9,28%</v>
+            <v>19,12%</v>
           </cell>
           <cell r="D24" t="str">
-            <v>7,58%</v>
+            <v>5,58%</v>
           </cell>
           <cell r="E24" t="str">
-            <v>R$ 102,97</v>
+            <v>R$ 126.927,18</v>
           </cell>
           <cell r="F24" t="str">
-            <v>R$ 104,53</v>
+            <v>R$ 132.409,34</v>
           </cell>
           <cell r="G24" t="str">
-            <v>630</v>
+            <v>10/11/2022</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>RBRR11</v>
+            <v>Trend Investback FIC FIRF Simples</v>
           </cell>
           <cell r="B25" t="str">
-            <v>R$ 60.289,81</v>
+            <v>R$ 917,32</v>
           </cell>
           <cell r="C25" t="str">
-            <v>8,49%</v>
+            <v>0,13%</v>
           </cell>
           <cell r="D25" t="str">
-            <v>-2,69%</v>
+            <v>7,48%</v>
           </cell>
           <cell r="E25" t="str">
-            <v>R$ 100,38</v>
+            <v>R$ 853,48</v>
           </cell>
           <cell r="F25" t="str">
-            <v>R$ 91,21</v>
+            <v>R$ 908,96</v>
           </cell>
           <cell r="G25" t="str">
-            <v>661</v>
+            <v>10/11/2022</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>LVBI11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B26" t="str">
-            <v>R$ 59.278,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C26" t="str">
-            <v>8,35%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D26" t="str">
-            <v>17,01%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E26" t="str">
-            <v>R$ 98,50</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F26" t="str">
-            <v>R$ 110,80</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G26" t="str">
-            <v>535</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>BRCO11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B27" t="str">
-            <v>R$ 55.947,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C27" t="str">
-            <v>7,88%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D27" t="str">
-            <v>13,99%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E27" t="str">
-            <v>R$ 99,28</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F27" t="str">
-            <v>R$ 109,70</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G27" t="str">
-            <v>510</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>PVBI11</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>R$ 53.568,00</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>7,55%</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>6,08%</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>R$ 93,67</v>
-          </cell>
-          <cell r="F28" t="str">
-            <v>R$ 96,00</v>
-          </cell>
+            <v>Ações</v>
+          </cell>
+          <cell r="B28"/>
+          <cell r="C28"/>
+          <cell r="D28"/>
+          <cell r="E28"/>
+          <cell r="F28"/>
           <cell r="G28" t="str">
-            <v>558</v>
+            <v>R$ 12.274,35</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>WHGR11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B29" t="str">
-            <v>R$ 53.100,08</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C29" t="str">
-            <v>7,48%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D29" t="str">
-            <v>-7,5%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E29" t="str">
-            <v>R$ 10,31</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F29" t="str">
-            <v>R$ 9,13</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G29" t="str">
-            <v>5.816</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>FGAA11</v>
+            <v>1,8% | Renda Variável</v>
           </cell>
           <cell r="B30" t="str">
-            <v>R$ 45.076,15</v>
+            <v>Posição</v>
           </cell>
           <cell r="C30" t="str">
-            <v>6,35%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D30" t="str">
-            <v>7,23%</v>
+            <v>Rentabilidade (%)</v>
           </cell>
           <cell r="E30" t="str">
-            <v>R$ 10,31</v>
+            <v>Preço médio</v>
           </cell>
           <cell r="F30" t="str">
-            <v>R$ 10,15</v>
+            <v>Último preço (R$)</v>
           </cell>
           <cell r="G30" t="str">
-            <v>4.441</v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v xml:space="preserve"> </v>
+            <v>XPBR31</v>
           </cell>
           <cell r="B31" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 3.299,20</v>
           </cell>
           <cell r="C31" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,47%</v>
           </cell>
           <cell r="D31" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-34,14%</v>
           </cell>
           <cell r="E31" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 156,54</v>
           </cell>
           <cell r="F31" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 103,10</v>
           </cell>
           <cell r="G31" t="str">
-            <v xml:space="preserve"> </v>
+            <v>32</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v xml:space="preserve"> </v>
+            <v>AAPL34</v>
           </cell>
           <cell r="B32" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 3.232,85</v>
           </cell>
           <cell r="C32" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,46%</v>
           </cell>
           <cell r="D32" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-19,1%</v>
           </cell>
           <cell r="E32" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 97,47</v>
           </cell>
           <cell r="F32" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 78,85</v>
           </cell>
           <cell r="G32" t="str">
-            <v xml:space="preserve"> </v>
+            <v>41</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Renda Fixa</v>
-          </cell>
-          <cell r="B33"/>
-          <cell r="C33"/>
-          <cell r="D33"/>
-          <cell r="E33"/>
-          <cell r="F33"/>
+            <v>GOGL34</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>R$ 2.532,60</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>0,36%</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>-35,61%</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>R$ 65,56</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>R$ 42,21</v>
+          </cell>
           <cell r="G33" t="str">
-            <v>R$ 13.413,30</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v xml:space="preserve"> </v>
+            <v>HASH11</v>
           </cell>
           <cell r="B34" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 1.920,90</v>
           </cell>
           <cell r="C34" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,27%</v>
           </cell>
           <cell r="D34" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-61,61%</v>
           </cell>
           <cell r="E34" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 43,89</v>
           </cell>
           <cell r="F34" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 16,85</v>
           </cell>
           <cell r="G34" t="str">
-            <v xml:space="preserve"> </v>
+            <v>114</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>1,9% | Inflação</v>
+            <v>M1TA34</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Posição</v>
+            <v>R$ 1.288,80</v>
           </cell>
           <cell r="C35" t="str">
-            <v>% Alocação</v>
+            <v>0,18%</v>
           </cell>
           <cell r="D35" t="str">
-            <v>Valor aplicado</v>
+            <v>-67,6%</v>
           </cell>
           <cell r="E35" t="str">
-            <v>Taxa</v>
+            <v>R$ 66,29</v>
           </cell>
           <cell r="F35" t="str">
-            <v>Data aplicação</v>
+            <v>R$ 21,48</v>
           </cell>
           <cell r="G35" t="str">
-            <v>Data vencimento</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>CDB BMG - JUL/2023</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B36" t="str">
-            <v>R$ 7.000,05</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C36" t="str">
-            <v>0,99%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D36" t="str">
-            <v>R$ 6.000,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E36" t="str">
-            <v>IPC-A + 4,15%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F36" t="str">
-            <v>15/07/2021</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G36" t="str">
-            <v>15/07/2023</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>CDB BMG - SET/2024</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B37" t="str">
-            <v>R$ 6.413,25</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C37" t="str">
-            <v>0,9%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D37" t="str">
-            <v>R$ 5.000,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E37" t="str">
-            <v>IPC-A + 3,65%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F37" t="str">
-            <v>24/09/2020</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G37" t="str">
-            <v>23/09/2024</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B38" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C38" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D38" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E38" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F38" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
+            <v>Renda Fixa</v>
+          </cell>
+          <cell r="B38"/>
+          <cell r="C38"/>
+          <cell r="D38"/>
+          <cell r="E38"/>
+          <cell r="F38"/>
           <cell r="G38" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 13.447,73</v>
           </cell>
         </row>
         <row r="39">
@@ -1620,199 +1620,199 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Ações</v>
-          </cell>
-          <cell r="B40"/>
-          <cell r="C40"/>
-          <cell r="D40"/>
-          <cell r="E40"/>
-          <cell r="F40"/>
+            <v>1,9% | Inflação</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Posição</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>% Alocação</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Valor aplicado</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>Taxa</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>Data aplicação</v>
+          </cell>
           <cell r="G40" t="str">
-            <v>R$ 11.959,95</v>
+            <v>Data vencimento</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>CDB BMG  - JUL/2023</v>
           </cell>
           <cell r="B41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 7.018,22</v>
           </cell>
           <cell r="C41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>1%</v>
           </cell>
           <cell r="D41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 6.000,00</v>
           </cell>
           <cell r="E41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>IPC-A + 4,15%</v>
           </cell>
           <cell r="F41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>15/07/2021</v>
           </cell>
           <cell r="G41" t="str">
-            <v xml:space="preserve"> </v>
+            <v>15/07/2023</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>1,7% | Renda Variável</v>
+            <v>CDB BMG  - SET/2024</v>
           </cell>
           <cell r="B42" t="str">
-            <v>Posição</v>
+            <v>R$ 6.429,51</v>
           </cell>
           <cell r="C42" t="str">
-            <v>% Alocação</v>
+            <v>0,92%</v>
           </cell>
           <cell r="D42" t="str">
-            <v>Rentabilidade (%)</v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="E42" t="str">
-            <v>Preço médio</v>
+            <v>IPC-A + 3,65%</v>
           </cell>
           <cell r="F42" t="str">
-            <v>Último preço (R$)</v>
+            <v>24/09/2020</v>
           </cell>
           <cell r="G42" t="str">
-            <v>Qtd. total</v>
+            <v>23/09/2024</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>AAPL34</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B43" t="str">
-            <v>R$ 3.254,17</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C43" t="str">
-            <v>0,46%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D43" t="str">
-            <v>-18,57%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E43" t="str">
-            <v>R$ 97,47</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F43" t="str">
-            <v>R$ 79,37</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G43" t="str">
-            <v>41</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>XPBR31</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B44" t="str">
-            <v>R$ 3.019,52</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C44" t="str">
-            <v>0,43%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D44" t="str">
-            <v>-39,72%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E44" t="str">
-            <v>R$ 156,54</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F44" t="str">
-            <v>R$ 94,36</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G44" t="str">
-            <v>32</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>GOGL34</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>R$ 2.460,00</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>0,35%</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>-37,46%</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>R$ 65,56</v>
-          </cell>
-          <cell r="F45" t="str">
-            <v>R$ 41,00</v>
-          </cell>
+            <v>COE</v>
+          </cell>
+          <cell r="B45"/>
+          <cell r="C45"/>
+          <cell r="D45"/>
+          <cell r="E45"/>
+          <cell r="F45"/>
           <cell r="G45" t="str">
-            <v>60</v>
+            <v>R$ 5.000,00</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>HASH11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B46" t="str">
-            <v>R$ 2.187,66</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C46" t="str">
-            <v>0,31%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D46" t="str">
-            <v>-56,28%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E46" t="str">
-            <v>R$ 43,89</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F46" t="str">
-            <v>R$ 19,19</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G46" t="str">
-            <v>114</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>M1TA34</v>
+            <v>0,7% | Alternativos</v>
           </cell>
           <cell r="B47" t="str">
-            <v>R$ 1.038,60</v>
+            <v>Posição</v>
           </cell>
           <cell r="C47" t="str">
-            <v>0,15%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D47" t="str">
-            <v>-73,89%</v>
+            <v>Rendimento bruto</v>
           </cell>
           <cell r="E47" t="str">
-            <v>R$ 66,29</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="F47" t="str">
-            <v>R$ 17,31</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="G47" t="str">
-            <v>60</v>
+            <v>Vencimento</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v xml:space="preserve"> </v>
+            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
           </cell>
           <cell r="B48" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="C48" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,71%</v>
           </cell>
           <cell r="D48" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 0,00</v>
           </cell>
           <cell r="E48" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0%</v>
           </cell>
           <cell r="F48" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="G48" t="str">
-            <v xml:space="preserve"> </v>
+            <v>04/04/2024</v>
           </cell>
         </row>
         <row r="49">
@@ -1835,6 +1835,406 @@
             <v xml:space="preserve"> </v>
           </cell>
           <cell r="G49" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B50" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C50" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D50" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E50" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F50" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G50" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Dividendos, proventos e outras distribuições</v>
+          </cell>
+          <cell r="B51"/>
+          <cell r="C51"/>
+          <cell r="D51"/>
+          <cell r="E51"/>
+          <cell r="F51"/>
+          <cell r="G51"/>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Proventos</v>
+          </cell>
+          <cell r="B53"/>
+          <cell r="C53"/>
+          <cell r="D53"/>
+          <cell r="E53"/>
+          <cell r="F53"/>
+          <cell r="G53"/>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Fundos Imobiliários</v>
+          </cell>
+          <cell r="B55"/>
+          <cell r="C55"/>
+          <cell r="D55"/>
+          <cell r="E55"/>
+          <cell r="F55"/>
+          <cell r="G55" t="str">
+            <v>R$ 2.224,68</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>0,3% | Alternativos</v>
+          </cell>
+          <cell r="B57"/>
+          <cell r="C57" t="str">
+            <v>Provisionado</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>% Alocação</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>Valor provisionado</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>Evento</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>Previsão pagamento</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>BLMR11</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v/>
+          </cell>
+          <cell r="C58" t="str">
+            <v>10.000</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>0,11%</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>R$ 750,00</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>16/11/2022</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>FGAA11</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v/>
+          </cell>
+          <cell r="C59" t="str">
+            <v>4.441</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>0,1%</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>R$ 710,56</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>16/11/2022</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>WHGR11</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v/>
+          </cell>
+          <cell r="C60" t="str">
+            <v>5.816</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>0,06%</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>R$ 407,12</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>16/11/2022</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>BRCO11</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v/>
+          </cell>
+          <cell r="C61" t="str">
+            <v>510</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>0,05%</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>R$ 357,00</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>14/11/2022</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B62" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C62" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D62" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E62" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F62" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G62" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Ações</v>
+          </cell>
+          <cell r="B63"/>
+          <cell r="C63"/>
+          <cell r="D63"/>
+          <cell r="E63"/>
+          <cell r="F63"/>
+          <cell r="G63" t="str">
+            <v>R$ 3,38</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>0% | Renda Variável</v>
+          </cell>
+          <cell r="B65"/>
+          <cell r="C65" t="str">
+            <v>Provisionado</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>% Alocação</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>Valor provisionado</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>Evento</v>
+          </cell>
+          <cell r="G65" t="str">
+            <v>Previsão pagamento</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>AAPL34</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v/>
+          </cell>
+          <cell r="C66" t="str">
+            <v>41</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>0%</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>R$ 3,38</v>
+          </cell>
+          <cell r="F66" t="str">
+            <v>DIVIDENDO</v>
+          </cell>
+          <cell r="G66" t="str">
+            <v>17/11/2022</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B67" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C67" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D67" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E67" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F67" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G67" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Custódia Remunerada</v>
+          </cell>
+          <cell r="B68"/>
+          <cell r="C68"/>
+          <cell r="D68"/>
+          <cell r="E68"/>
+          <cell r="F68"/>
+          <cell r="G68"/>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B69" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C69" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D69" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E69" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F69" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G69" t="str">
             <v xml:space="preserve"> </v>
           </cell>
         </row>
@@ -2221,19 +2621,19 @@
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="str">
         <f>Planilha1!A3</f>
-        <v>31/10/2022</v>
+        <v>10/11/2022</v>
       </c>
       <c r="C2" s="3">
         <f>VALUE(Planilha1!B3)</f>
-        <v>134390.28</v>
+        <v>134921.01999999999</v>
       </c>
       <c r="D2" s="3">
         <f>VALUE(Planilha1!C3)</f>
-        <v>545032.14</v>
+        <v>531655.78</v>
       </c>
       <c r="E2" s="3">
         <f>VALUE(Planilha1!D3)</f>
-        <v>11959.95</v>
+        <v>12274.35</v>
       </c>
       <c r="F2" s="3">
         <f>VALUE(Planilha1!E3)</f>
@@ -2241,23 +2641,23 @@
       </c>
       <c r="G2" s="3">
         <f>VALUE(Planilha1!F3)</f>
-        <v>13413.3</v>
+        <v>13447.73</v>
       </c>
       <c r="H2" s="7">
         <f>VALUE(Planilha1!G3)</f>
-        <v>0</v>
+        <v>1506.81</v>
       </c>
       <c r="I2" s="3">
         <f>Planilha1!H3</f>
-        <v>4591.6263576542906</v>
+        <v>4212.6251040590705</v>
       </c>
       <c r="J2" s="3">
         <f>Planilha1!I3</f>
-        <v>84043.155925309882</v>
+        <v>84465.147994884668</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(C2:J2)</f>
-        <v>798430.45228296425</v>
+        <v>787483.46309894382</v>
       </c>
     </row>
   </sheetData>
@@ -2270,7 +2670,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,19 +2719,19 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>RIGHT('[1]Sua carteira'!$F$1,16)</f>
-        <v>31/10/2022 18:08</v>
+        <v>10/11/2022 18:05</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>VLOOKUP(B1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 134.390,28</v>
+        <v>R$ 134.921,02</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(C1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 545.032,14</v>
+        <v>R$ 531.655,78</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(D1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 11.959,95</v>
+        <v>R$ 12.274,35</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(E1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
@@ -2339,35 +2739,35 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(F1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 13.413,30</v>
+        <v>R$ 13.447,73</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'[1]Sua carteira'!$C$4</f>
-        <v>R$ 0,00</v>
+        <v>R$ 1.506,81</v>
       </c>
       <c r="H2">
-        <v>4591.6263576542906</v>
+        <v>786.2308891487628</v>
       </c>
       <c r="I2">
-        <v>16413.396595053098</v>
+        <v>15764.305336857909</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>LEFT(A2,10)</f>
-        <v>31/10/2022</v>
+        <v>10/11/2022</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:G3" si="0">MID(B2,4,10)</f>
-        <v>134.390,28</v>
+        <v>134.921,02</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>545.032,14</v>
+        <v>531.655,78</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>11.959,95</v>
+        <v>12.274,35</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -2375,23 +2775,23 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>13.413,30</v>
+        <v>13.447,73</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>0,00</v>
+        <v>1.506,81</v>
       </c>
       <c r="H3" s="6">
-        <f>H2</f>
-        <v>4591.6263576542906</v>
+        <f>H2*I4</f>
+        <v>4212.6251040590705</v>
       </c>
       <c r="I3" s="6">
         <f>I2*I4</f>
-        <v>84043.155925309882</v>
+        <v>84465.147994884668</v>
       </c>
       <c r="J3" s="3">
         <f>SUM(B3:I3)</f>
-        <v>88634.782282964166</v>
+        <v>88677.77309894374</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2404,7 +2804,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>5.1204000000000001</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="J4" s="3"/>
     </row>

--- a/infos.xlsx
+++ b/infos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6bb4f777028a843/Python/MeuProjeto/Projetos/dash_investimentos/Resumo_Investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_41015610E8E9859ED3553A0719AD0717D127FD23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FC3248-213D-4FCD-9532-2ACCC0657F76}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_502957104E1982FFD6590456C722A86968EAE8C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FE28DA-7802-4A6C-92B4-D7B5918AA91B}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21252" yWindow="-1848" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/11/2022</c:v>
+                  <c:v>27/12/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -251,7 +251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3940-441E-A8B1-283E247D9EC4}"/>
+              <c16:uniqueId val="{00000000-27D8-402E-BB79-98F114F23E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -287,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/11/2022</c:v>
+                  <c:v>27/12/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -307,7 +307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3940-441E-A8B1-283E247D9EC4}"/>
+              <c16:uniqueId val="{00000001-27D8-402E-BB79-98F114F23E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -343,7 +343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/11/2022</c:v>
+                  <c:v>27/12/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -363,7 +363,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3940-441E-A8B1-283E247D9EC4}"/>
+              <c16:uniqueId val="{00000002-27D8-402E-BB79-98F114F23E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -399,7 +399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/11/2022</c:v>
+                  <c:v>27/12/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -419,7 +419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3940-441E-A8B1-283E247D9EC4}"/>
+              <c16:uniqueId val="{00000003-27D8-402E-BB79-98F114F23E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -455,7 +455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/11/2022</c:v>
+                  <c:v>27/12/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -475,7 +475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3940-441E-A8B1-283E247D9EC4}"/>
+              <c16:uniqueId val="{00000004-27D8-402E-BB79-98F114F23E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -511,7 +511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/11/2022</c:v>
+                  <c:v>27/12/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,7 +531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3940-441E-A8B1-283E247D9EC4}"/>
+              <c16:uniqueId val="{00000005-27D8-402E-BB79-98F114F23E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,7 +569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/11/2022</c:v>
+                  <c:v>27/12/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -581,7 +581,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>4212.6251040590705</c:v>
+                  <c:v>3770.0931209635951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,7 +589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3940-441E-A8B1-283E247D9EC4}"/>
+              <c16:uniqueId val="{00000006-27D8-402E-BB79-98F114F23E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -627,7 +627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/11/2022</c:v>
+                  <c:v>27/12/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -639,10 +639,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>84465.147994884668</c:v>
+                  <c:v>86362.694307157435</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3579999999999997</c:v>
+                  <c:v>5.2758000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +650,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3940-441E-A8B1-283E247D9EC4}"/>
+              <c16:uniqueId val="{00000007-27D8-402E-BB79-98F114F23E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -868,17 +868,17 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="F1" t="str">
-            <v>Conta: 2563257 | 10/11/2022 18:05</v>
+            <v>Conta: 2563257 | 27/12/2022 09:58</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>R$ 1.506,81</v>
+            <v>R$ 5.360,38</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Fundos Imobiliários</v>
+            <v>COE</v>
           </cell>
           <cell r="B6"/>
           <cell r="C6"/>
@@ -886,7 +886,7 @@
           <cell r="E6"/>
           <cell r="F6"/>
           <cell r="G6" t="str">
-            <v>R$ 531.655,78</v>
+            <v>R$ 5.000,00</v>
           </cell>
         </row>
         <row r="7">
@@ -914,7 +914,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>75,8% | Renda Variável</v>
+            <v>0,7% | Alternativos</v>
           </cell>
           <cell r="B8" t="str">
             <v>Posição</v>
@@ -923,269 +923,259 @@
             <v>% Alocação</v>
           </cell>
           <cell r="D8" t="str">
-            <v>Rentabilidade c/ proventos</v>
+            <v>Rendimento bruto</v>
           </cell>
           <cell r="E8" t="str">
-            <v>Preço médio (abertura)</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="F8" t="str">
-            <v>Última cotação</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="G8" t="str">
-            <v>Qtd. total</v>
+            <v>Vencimento</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>VGIA11</v>
+            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
           </cell>
           <cell r="B9" t="str">
-            <v>R$ 76.639,64</v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="C9" t="str">
-            <v>10,93%</v>
+            <v>0,73%</v>
           </cell>
           <cell r="D9" t="str">
-            <v>9,56%</v>
+            <v>R$ 0,00</v>
           </cell>
           <cell r="E9" t="str">
-            <v>R$ 10,26</v>
+            <v>0%</v>
           </cell>
           <cell r="F9" t="str">
-            <v>R$ 10,43</v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="G9" t="str">
-            <v>7.348</v>
+            <v>04/04/2024</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>BLMR11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B10" t="str">
-            <v>R$ 73.400,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C10" t="str">
-            <v>10,47%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D10" t="str">
-            <v>4,7%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E10" t="str">
-            <v>R$ 7,51</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F10" t="str">
-            <v>R$ 7,34</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G10" t="str">
-            <v>10.000</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>RZTR11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B11" t="str">
-            <v>R$ 63.882,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C11" t="str">
-            <v>9,11%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D11" t="str">
-            <v>5,76%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E11" t="str">
-            <v>R$ 102,97</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F11" t="str">
-            <v>R$ 101,40</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G11" t="str">
-            <v>630</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>RBRR11</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>R$ 58.240,71</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>8,31%</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>-5,78%</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>R$ 100,38</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>R$ 88,11</v>
-          </cell>
+            <v>Ações</v>
+          </cell>
+          <cell r="B12"/>
+          <cell r="C12"/>
+          <cell r="D12"/>
+          <cell r="E12"/>
+          <cell r="F12"/>
           <cell r="G12" t="str">
-            <v>661</v>
+            <v>R$ 10.594,44</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LVBI11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B13" t="str">
-            <v>R$ 56.084,05</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C13" t="str">
-            <v>8%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D13" t="str">
-            <v>11,71%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E13" t="str">
-            <v>R$ 98,50</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F13" t="str">
-            <v>R$ 104,83</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G13" t="str">
-            <v>535</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>BRCO11</v>
+            <v>1,5% | Renda Variável</v>
           </cell>
           <cell r="B14" t="str">
-            <v>R$ 55.243,20</v>
+            <v>Posição</v>
           </cell>
           <cell r="C14" t="str">
-            <v>7,88%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D14" t="str">
-            <v>13,3%</v>
+            <v>Rentabilidade (%)</v>
           </cell>
           <cell r="E14" t="str">
-            <v>R$ 99,28</v>
+            <v>Preço médio</v>
           </cell>
           <cell r="F14" t="str">
-            <v>R$ 108,32</v>
+            <v>Último preço (R$)</v>
           </cell>
           <cell r="G14" t="str">
-            <v>510</v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>PVBI11</v>
+            <v>AAPL34</v>
           </cell>
           <cell r="B15" t="str">
-            <v>R$ 53.010,00</v>
+            <v>R$ 2.789,64</v>
           </cell>
           <cell r="C15" t="str">
-            <v>7,56%</v>
+            <v>0,4%</v>
           </cell>
           <cell r="D15" t="str">
-            <v>5,62%</v>
+            <v>-30,19%</v>
           </cell>
           <cell r="E15" t="str">
-            <v>R$ 93,67</v>
+            <v>R$ 48,74</v>
           </cell>
           <cell r="F15" t="str">
-            <v>R$ 95,00</v>
+            <v>R$ 34,02</v>
           </cell>
           <cell r="G15" t="str">
-            <v>558</v>
+            <v>82</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>WHGR11</v>
+            <v>XPBR31</v>
           </cell>
           <cell r="B16" t="str">
-            <v>R$ 50.657,36</v>
+            <v>R$ 2.505,60</v>
           </cell>
           <cell r="C16" t="str">
-            <v>7,23%</v>
+            <v>0,36%</v>
           </cell>
           <cell r="D16" t="str">
-            <v>-10,9%</v>
+            <v>-49,98%</v>
           </cell>
           <cell r="E16" t="str">
-            <v>R$ 10,31</v>
+            <v>R$ 156,54</v>
           </cell>
           <cell r="F16" t="str">
-            <v>R$ 8,71</v>
+            <v>R$ 78,30</v>
           </cell>
           <cell r="G16" t="str">
-            <v>5.816</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>FGAA11</v>
+            <v>GOGL34</v>
           </cell>
           <cell r="B17" t="str">
-            <v>R$ 44.498,82</v>
+            <v>R$ 2.268,00</v>
           </cell>
           <cell r="C17" t="str">
-            <v>6,35%</v>
+            <v>0,33%</v>
           </cell>
           <cell r="D17" t="str">
-            <v>7,52%</v>
+            <v>-42,34%</v>
           </cell>
           <cell r="E17" t="str">
-            <v>R$ 10,31</v>
+            <v>R$ 65,56</v>
           </cell>
           <cell r="F17" t="str">
-            <v>R$ 10,02</v>
+            <v>R$ 37,80</v>
           </cell>
           <cell r="G17" t="str">
-            <v>4.441</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>PVBI12</v>
+            <v>HASH11</v>
           </cell>
           <cell r="B18" t="str">
-            <v>R$ 0,00</v>
+            <v>R$ 1.744,20</v>
           </cell>
           <cell r="C18" t="str">
-            <v>0%</v>
+            <v>0,25%</v>
           </cell>
           <cell r="D18" t="str">
-            <v>-</v>
+            <v>-65,14%</v>
           </cell>
           <cell r="E18" t="str">
-            <v>Indefinido</v>
+            <v>R$ 43,89</v>
           </cell>
           <cell r="F18" t="str">
-            <v>R$ 0,00</v>
+            <v>R$ 15,30</v>
           </cell>
           <cell r="G18" t="str">
-            <v>196</v>
+            <v>114</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v xml:space="preserve"> </v>
+            <v>M1TA34</v>
           </cell>
           <cell r="B19" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 1.287,00</v>
           </cell>
           <cell r="C19" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,19%</v>
           </cell>
           <cell r="D19" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-67,64%</v>
           </cell>
           <cell r="E19" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 66,29</v>
           </cell>
           <cell r="F19" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 21,45</v>
           </cell>
           <cell r="G19" t="str">
-            <v xml:space="preserve"> </v>
+            <v>60</v>
           </cell>
         </row>
         <row r="20">
@@ -1213,327 +1203,337 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Fundos de Investimentos</v>
-          </cell>
-          <cell r="B21"/>
-          <cell r="C21"/>
-          <cell r="D21"/>
-          <cell r="E21"/>
-          <cell r="F21"/>
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B21" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C21" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D21" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E21" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F21" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
           <cell r="G21" t="str">
-            <v>R$ 134.921,02</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B22" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C22" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D22" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E22" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F22" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
+            <v>Fundos Imobiliários</v>
+          </cell>
+          <cell r="B22"/>
+          <cell r="C22"/>
+          <cell r="D22"/>
+          <cell r="E22"/>
+          <cell r="F22"/>
           <cell r="G22" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 519.207,78</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>19,2% | Pós-Fixado</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B23" t="str">
-            <v>Posição</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C23" t="str">
-            <v>% Alocação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D23" t="str">
-            <v>Rentabilidade</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E23" t="str">
-            <v>Valor aplicado</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F23" t="str">
-            <v>Valor líquido</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G23" t="str">
-            <v>Data da cota</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Trend DI Simples FIRF</v>
+            <v>75,3% | Renda Variável</v>
           </cell>
           <cell r="B24" t="str">
-            <v>R$ 134.003,70</v>
+            <v>Posição</v>
           </cell>
           <cell r="C24" t="str">
-            <v>19,12%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D24" t="str">
-            <v>5,58%</v>
+            <v>Rentabilidade c/ proventos</v>
           </cell>
           <cell r="E24" t="str">
-            <v>R$ 126.927,18</v>
+            <v>Preço médio (abertura)</v>
           </cell>
           <cell r="F24" t="str">
-            <v>R$ 132.409,34</v>
+            <v>Última cotação</v>
           </cell>
           <cell r="G24" t="str">
-            <v>10/11/2022</v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Trend Investback FIC FIRF Simples</v>
+            <v>VGIA11</v>
           </cell>
           <cell r="B25" t="str">
-            <v>R$ 917,32</v>
+            <v>R$ 72.157,36</v>
           </cell>
           <cell r="C25" t="str">
-            <v>0,13%</v>
+            <v>10,46%</v>
           </cell>
           <cell r="D25" t="str">
-            <v>7,48%</v>
+            <v>6,34%</v>
           </cell>
           <cell r="E25" t="str">
-            <v>R$ 853,48</v>
+            <v>R$ 10,26</v>
           </cell>
           <cell r="F25" t="str">
-            <v>R$ 908,96</v>
+            <v>R$ 9,82</v>
           </cell>
           <cell r="G25" t="str">
-            <v>10/11/2022</v>
+            <v>7.348</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>BLMR11</v>
           </cell>
           <cell r="B26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 70.000,00</v>
           </cell>
           <cell r="C26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>10,15%</v>
           </cell>
           <cell r="D26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>1,18%</v>
           </cell>
           <cell r="E26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 7,51</v>
           </cell>
           <cell r="F26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 7,00</v>
           </cell>
           <cell r="G26" t="str">
-            <v xml:space="preserve"> </v>
+            <v>10.000</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v xml:space="preserve"> </v>
+            <v>RZTR11</v>
           </cell>
           <cell r="B27" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 62.149,50</v>
           </cell>
           <cell r="C27" t="str">
-            <v xml:space="preserve"> </v>
+            <v>9,01%</v>
           </cell>
           <cell r="D27" t="str">
-            <v xml:space="preserve"> </v>
+            <v>4,3%</v>
           </cell>
           <cell r="E27" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 102,97</v>
           </cell>
           <cell r="F27" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 98,65</v>
           </cell>
           <cell r="G27" t="str">
-            <v xml:space="preserve"> </v>
+            <v>630</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Ações</v>
-          </cell>
-          <cell r="B28"/>
-          <cell r="C28"/>
-          <cell r="D28"/>
-          <cell r="E28"/>
-          <cell r="F28"/>
+            <v>RBRR11</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>R$ 55.517,39</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>8,05%</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>-8,49%</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>R$ 100,38</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>R$ 83,99</v>
+          </cell>
           <cell r="G28" t="str">
-            <v>R$ 12.274,35</v>
+            <v>661</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v xml:space="preserve"> </v>
+            <v>LVBI11</v>
           </cell>
           <cell r="B29" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 52.590,50</v>
           </cell>
           <cell r="C29" t="str">
-            <v xml:space="preserve"> </v>
+            <v>7,63%</v>
           </cell>
           <cell r="D29" t="str">
-            <v xml:space="preserve"> </v>
+            <v>5,84%</v>
           </cell>
           <cell r="E29" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 98,50</v>
           </cell>
           <cell r="F29" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 98,30</v>
           </cell>
           <cell r="G29" t="str">
-            <v xml:space="preserve"> </v>
+            <v>535</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>1,8% | Renda Variável</v>
+            <v>BRCO11</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Posição</v>
+            <v>R$ 49.730,10</v>
           </cell>
           <cell r="C30" t="str">
-            <v>% Alocação</v>
+            <v>7,21%</v>
           </cell>
           <cell r="D30" t="str">
-            <v>Rentabilidade (%)</v>
+            <v>3,12%</v>
           </cell>
           <cell r="E30" t="str">
-            <v>Preço médio</v>
+            <v>R$ 99,28</v>
           </cell>
           <cell r="F30" t="str">
-            <v>Último preço (R$)</v>
+            <v>R$ 97,51</v>
           </cell>
           <cell r="G30" t="str">
-            <v>Qtd. total</v>
+            <v>510</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>XPBR31</v>
+            <v>WHGR11</v>
           </cell>
           <cell r="B31" t="str">
-            <v>R$ 3.299,20</v>
+            <v>R$ 49.726,80</v>
           </cell>
           <cell r="C31" t="str">
-            <v>0,47%</v>
+            <v>7,21%</v>
           </cell>
           <cell r="D31" t="str">
-            <v>-34,14%</v>
+            <v>-11,77%</v>
           </cell>
           <cell r="E31" t="str">
-            <v>R$ 156,54</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F31" t="str">
-            <v>R$ 103,10</v>
+            <v>R$ 8,55</v>
           </cell>
           <cell r="G31" t="str">
-            <v>32</v>
+            <v>5.816</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>AAPL34</v>
+            <v>PVBI11</v>
           </cell>
           <cell r="B32" t="str">
-            <v>R$ 3.232,85</v>
+            <v>R$ 48.267,00</v>
           </cell>
           <cell r="C32" t="str">
-            <v>0,46%</v>
+            <v>7%</v>
           </cell>
           <cell r="D32" t="str">
-            <v>-19,1%</v>
+            <v>-2,84%</v>
           </cell>
           <cell r="E32" t="str">
-            <v>R$ 97,47</v>
+            <v>R$ 93,67</v>
           </cell>
           <cell r="F32" t="str">
-            <v>R$ 78,85</v>
+            <v>R$ 86,50</v>
           </cell>
           <cell r="G32" t="str">
-            <v>41</v>
+            <v>558</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>GOGL34</v>
+            <v>FGAA11</v>
           </cell>
           <cell r="B33" t="str">
-            <v>R$ 2.532,60</v>
+            <v>R$ 44.099,13</v>
           </cell>
           <cell r="C33" t="str">
-            <v>0,36%</v>
+            <v>6,39%</v>
           </cell>
           <cell r="D33" t="str">
-            <v>-35,61%</v>
+            <v>8%</v>
           </cell>
           <cell r="E33" t="str">
-            <v>R$ 65,56</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F33" t="str">
-            <v>R$ 42,21</v>
+            <v>R$ 9,93</v>
           </cell>
           <cell r="G33" t="str">
-            <v>60</v>
+            <v>4.441</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>HASH11</v>
+            <v>AAZQ11</v>
           </cell>
           <cell r="B34" t="str">
-            <v>R$ 1.920,90</v>
+            <v>R$ 14.970,00</v>
           </cell>
           <cell r="C34" t="str">
-            <v>0,27%</v>
+            <v>2,17%</v>
           </cell>
           <cell r="D34" t="str">
-            <v>-61,61%</v>
+            <v>-0,2%</v>
           </cell>
           <cell r="E34" t="str">
-            <v>R$ 43,89</v>
+            <v>R$ 10,00</v>
           </cell>
           <cell r="F34" t="str">
-            <v>R$ 16,85</v>
+            <v>R$ 9,98</v>
           </cell>
           <cell r="G34" t="str">
-            <v>114</v>
+            <v>1.500</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>M1TA34</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B35" t="str">
-            <v>R$ 1.288,80</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C35" t="str">
-            <v>0,18%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D35" t="str">
-            <v>-67,6%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E35" t="str">
-            <v>R$ 66,29</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F35" t="str">
-            <v>R$ 21,48</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G35" t="str">
-            <v>60</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="36">
@@ -1561,130 +1561,130 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B37" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C37" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D37" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E37" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F37" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
+            <v>Fundos de Investimentos</v>
+          </cell>
+          <cell r="B37"/>
+          <cell r="C37"/>
+          <cell r="D37"/>
+          <cell r="E37"/>
+          <cell r="F37"/>
           <cell r="G37" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 135.839,56</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Renda Fixa</v>
-          </cell>
-          <cell r="B38"/>
-          <cell r="C38"/>
-          <cell r="D38"/>
-          <cell r="E38"/>
-          <cell r="F38"/>
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B38" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C38" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D38" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E38" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F38" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
           <cell r="G38" t="str">
-            <v>R$ 13.447,73</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v xml:space="preserve"> </v>
+            <v>19,7% | Pós-Fixado</v>
           </cell>
           <cell r="B39" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Posição</v>
           </cell>
           <cell r="C39" t="str">
-            <v xml:space="preserve"> </v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D39" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="E39" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="F39" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Valor líquido</v>
           </cell>
           <cell r="G39" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Data da cota</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>1,9% | Inflação</v>
+            <v>Trend DI Simples FIRF</v>
           </cell>
           <cell r="B40" t="str">
-            <v>Posição</v>
+            <v>R$ 134.914,90</v>
           </cell>
           <cell r="C40" t="str">
-            <v>% Alocação</v>
+            <v>19,56%</v>
           </cell>
           <cell r="D40" t="str">
-            <v>Valor aplicado</v>
+            <v>7,24%</v>
           </cell>
           <cell r="E40" t="str">
-            <v>Taxa</v>
+            <v>R$ 125.805,53</v>
           </cell>
           <cell r="F40" t="str">
-            <v>Data aplicação</v>
+            <v>R$ 134.257,09</v>
           </cell>
           <cell r="G40" t="str">
-            <v>Data vencimento</v>
+            <v>26/12/2022</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>CDB BMG  - JUL/2023</v>
+            <v>Trend Investback FIC FIRF Simples</v>
           </cell>
           <cell r="B41" t="str">
-            <v>R$ 7.018,22</v>
+            <v>R$ 924,66</v>
           </cell>
           <cell r="C41" t="str">
-            <v>1%</v>
+            <v>0,13%</v>
           </cell>
           <cell r="D41" t="str">
-            <v>R$ 6.000,00</v>
+            <v>9,17%</v>
           </cell>
           <cell r="E41" t="str">
-            <v>IPC-A + 4,15%</v>
+            <v>R$ 847,00</v>
           </cell>
           <cell r="F41" t="str">
-            <v>15/07/2021</v>
+            <v>R$ 920,85</v>
           </cell>
           <cell r="G41" t="str">
-            <v>15/07/2023</v>
+            <v>26/12/2022</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>CDB BMG  - SET/2024</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B42" t="str">
-            <v>R$ 6.429,51</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C42" t="str">
-            <v>0,92%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D42" t="str">
-            <v>R$ 5.000,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E42" t="str">
-            <v>IPC-A + 3,65%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F42" t="str">
-            <v>24/09/2020</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G42" t="str">
-            <v>23/09/2024</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="43">
@@ -1712,107 +1712,107 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F44" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
+            <v>Renda Fixa</v>
+          </cell>
+          <cell r="B44"/>
+          <cell r="C44"/>
+          <cell r="D44"/>
+          <cell r="E44"/>
+          <cell r="F44"/>
           <cell r="G44" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 13.617,80</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>COE</v>
-          </cell>
-          <cell r="B45"/>
-          <cell r="C45"/>
-          <cell r="D45"/>
-          <cell r="E45"/>
-          <cell r="F45"/>
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B45" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C45" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D45" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E45" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F45" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
           <cell r="G45" t="str">
-            <v>R$ 5.000,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v xml:space="preserve"> </v>
+            <v>2% | Inflação</v>
           </cell>
           <cell r="B46" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Posição na taxa de compra</v>
           </cell>
           <cell r="C46" t="str">
-            <v xml:space="preserve"> </v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D46" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="E46" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Taxa de compra</v>
           </cell>
           <cell r="F46" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Data aplicação</v>
           </cell>
           <cell r="G46" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Data vencimento</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>0,7% | Alternativos</v>
+            <v>CDB BMG  - JUL/2023</v>
           </cell>
           <cell r="B47" t="str">
-            <v>Posição</v>
+            <v>R$ 7.108,71</v>
           </cell>
           <cell r="C47" t="str">
-            <v>% Alocação</v>
+            <v>1,03%</v>
           </cell>
           <cell r="D47" t="str">
-            <v>Rendimento bruto</v>
+            <v>R$ 6.000,00</v>
           </cell>
           <cell r="E47" t="str">
-            <v>Rentabilidade</v>
+            <v>IPC-A + 4,15%</v>
           </cell>
           <cell r="F47" t="str">
-            <v>Valor aplicado</v>
+            <v>15/07/2021</v>
           </cell>
           <cell r="G47" t="str">
-            <v>Vencimento</v>
+            <v>15/07/2023</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
+            <v>CDB BMG  - SET/2024</v>
           </cell>
           <cell r="B48" t="str">
+            <v>R$ 6.509,09</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>0,94%</v>
+          </cell>
+          <cell r="D48" t="str">
             <v>R$ 5.000,00</v>
           </cell>
-          <cell r="C48" t="str">
-            <v>0,71%</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>R$ 0,00</v>
-          </cell>
           <cell r="E48" t="str">
-            <v>0%</v>
+            <v>IPC-A + 3,65%</v>
           </cell>
           <cell r="F48" t="str">
-            <v>R$ 5.000,00</v>
+            <v>24/09/2020</v>
           </cell>
           <cell r="G48" t="str">
-            <v>04/04/2024</v>
+            <v>23/09/2024</v>
           </cell>
         </row>
         <row r="49">
@@ -1858,383 +1858,6 @@
             <v xml:space="preserve"> </v>
           </cell>
           <cell r="G50" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>Dividendos, proventos e outras distribuições</v>
-          </cell>
-          <cell r="B51"/>
-          <cell r="C51"/>
-          <cell r="D51"/>
-          <cell r="E51"/>
-          <cell r="F51"/>
-          <cell r="G51"/>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B52" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C52" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D52" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E52" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F52" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G52" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>Proventos</v>
-          </cell>
-          <cell r="B53"/>
-          <cell r="C53"/>
-          <cell r="D53"/>
-          <cell r="E53"/>
-          <cell r="F53"/>
-          <cell r="G53"/>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B54" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C54" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D54" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E54" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F54" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G54" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>Fundos Imobiliários</v>
-          </cell>
-          <cell r="B55"/>
-          <cell r="C55"/>
-          <cell r="D55"/>
-          <cell r="E55"/>
-          <cell r="F55"/>
-          <cell r="G55" t="str">
-            <v>R$ 2.224,68</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B56" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C56" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D56" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E56" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F56" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G56" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>0,3% | Alternativos</v>
-          </cell>
-          <cell r="B57"/>
-          <cell r="C57" t="str">
-            <v>Provisionado</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>% Alocação</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>Valor provisionado</v>
-          </cell>
-          <cell r="F57" t="str">
-            <v>Evento</v>
-          </cell>
-          <cell r="G57" t="str">
-            <v>Previsão pagamento</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>BLMR11</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v/>
-          </cell>
-          <cell r="C58" t="str">
-            <v>10.000</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>0,11%</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>R$ 750,00</v>
-          </cell>
-          <cell r="F58" t="str">
-            <v>RENDIMENTO</v>
-          </cell>
-          <cell r="G58" t="str">
-            <v>16/11/2022</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>FGAA11</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v/>
-          </cell>
-          <cell r="C59" t="str">
-            <v>4.441</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>0,1%</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>R$ 710,56</v>
-          </cell>
-          <cell r="F59" t="str">
-            <v>RENDIMENTO</v>
-          </cell>
-          <cell r="G59" t="str">
-            <v>16/11/2022</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>WHGR11</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v/>
-          </cell>
-          <cell r="C60" t="str">
-            <v>5.816</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>0,06%</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>R$ 407,12</v>
-          </cell>
-          <cell r="F60" t="str">
-            <v>RENDIMENTO</v>
-          </cell>
-          <cell r="G60" t="str">
-            <v>16/11/2022</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>BRCO11</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v/>
-          </cell>
-          <cell r="C61" t="str">
-            <v>510</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>0,05%</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>R$ 357,00</v>
-          </cell>
-          <cell r="F61" t="str">
-            <v>RENDIMENTO</v>
-          </cell>
-          <cell r="G61" t="str">
-            <v>14/11/2022</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B62" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C62" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D62" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E62" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F62" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G62" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>Ações</v>
-          </cell>
-          <cell r="B63"/>
-          <cell r="C63"/>
-          <cell r="D63"/>
-          <cell r="E63"/>
-          <cell r="F63"/>
-          <cell r="G63" t="str">
-            <v>R$ 3,38</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B64" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C64" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D64" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E64" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F64" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G64" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>0% | Renda Variável</v>
-          </cell>
-          <cell r="B65"/>
-          <cell r="C65" t="str">
-            <v>Provisionado</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>% Alocação</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>Valor provisionado</v>
-          </cell>
-          <cell r="F65" t="str">
-            <v>Evento</v>
-          </cell>
-          <cell r="G65" t="str">
-            <v>Previsão pagamento</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>AAPL34</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v/>
-          </cell>
-          <cell r="C66" t="str">
-            <v>41</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>0%</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>R$ 3,38</v>
-          </cell>
-          <cell r="F66" t="str">
-            <v>DIVIDENDO</v>
-          </cell>
-          <cell r="G66" t="str">
-            <v>17/11/2022</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B67" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C67" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D67" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E67" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F67" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G67" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>Custódia Remunerada</v>
-          </cell>
-          <cell r="B68"/>
-          <cell r="C68"/>
-          <cell r="D68"/>
-          <cell r="E68"/>
-          <cell r="F68"/>
-          <cell r="G68"/>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B69" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C69" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D69" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E69" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F69" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="G69" t="str">
             <v xml:space="preserve"> </v>
           </cell>
         </row>
@@ -2580,10 +2203,9 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
@@ -2621,19 +2243,19 @@
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="str">
         <f>Planilha1!A3</f>
-        <v>10/11/2022</v>
+        <v>27/12/2022</v>
       </c>
       <c r="C2" s="3">
         <f>VALUE(Planilha1!B3)</f>
-        <v>134921.01999999999</v>
+        <v>135839.56</v>
       </c>
       <c r="D2" s="3">
         <f>VALUE(Planilha1!C3)</f>
-        <v>531655.78</v>
+        <v>519207.78</v>
       </c>
       <c r="E2" s="3">
         <f>VALUE(Planilha1!D3)</f>
-        <v>12274.35</v>
+        <v>10594.44</v>
       </c>
       <c r="F2" s="3">
         <f>VALUE(Planilha1!E3)</f>
@@ -2641,23 +2263,23 @@
       </c>
       <c r="G2" s="3">
         <f>VALUE(Planilha1!F3)</f>
-        <v>13447.73</v>
+        <v>13617.8</v>
       </c>
       <c r="H2" s="7">
         <f>VALUE(Planilha1!G3)</f>
-        <v>1506.81</v>
+        <v>5360.38</v>
       </c>
       <c r="I2" s="3">
         <f>Planilha1!H3</f>
-        <v>4212.6251040590705</v>
+        <v>3770.0931209635951</v>
       </c>
       <c r="J2" s="3">
         <f>Planilha1!I3</f>
-        <v>84465.147994884668</v>
+        <v>86362.694307157435</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(C2:J2)</f>
-        <v>787483.46309894382</v>
+        <v>779752.74742812105</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2292,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,19 +2341,19 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>RIGHT('[1]Sua carteira'!$F$1,16)</f>
-        <v>10/11/2022 18:05</v>
+        <v>27/12/2022 09:58</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>VLOOKUP(B1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 134.921,02</v>
+        <v>R$ 135.839,56</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(C1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 531.655,78</v>
+        <v>R$ 519.207,78</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(D1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 12.274,35</v>
+        <v>R$ 10.594,44</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(E1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
@@ -2739,35 +2361,35 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(F1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 13.447,73</v>
+        <v>R$ 13.617,80</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'[1]Sua carteira'!$C$4</f>
-        <v>R$ 1.506,81</v>
+        <v>R$ 5.360,38</v>
       </c>
       <c r="H2">
-        <v>786.2308891487628</v>
+        <v>3770.0931209635951</v>
       </c>
       <c r="I2">
-        <v>15764.305336857909</v>
+        <v>86362.694307157435</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>LEFT(A2,10)</f>
-        <v>10/11/2022</v>
+        <v>27/12/2022</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:G3" si="0">MID(B2,4,10)</f>
-        <v>134.921,02</v>
+        <v>135.839,56</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>531.655,78</v>
+        <v>519.207,78</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>12.274,35</v>
+        <v>10.594,44</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -2775,24 +2397,21 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>13.447,73</v>
+        <v>13.617,80</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>1.506,81</v>
+        <v>5.360,38</v>
       </c>
       <c r="H3" s="6">
-        <f>H2*I4</f>
-        <v>4212.6251040590705</v>
+        <f>H2</f>
+        <v>3770.0931209635951</v>
       </c>
       <c r="I3" s="6">
-        <f>I2*I4</f>
-        <v>84465.147994884668</v>
-      </c>
-      <c r="J3" s="3">
-        <f>SUM(B3:I3)</f>
-        <v>88677.77309894374</v>
-      </c>
+        <f>I2</f>
+        <v>86362.694307157435</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2804,7 +2423,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>5.3579999999999997</v>
+        <v>5.2758000000000003</v>
       </c>
       <c r="J4" s="3"/>
     </row>

--- a/infos.xlsx
+++ b/infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6bb4f777028a843/Python/MeuProjeto/Projetos/dash_investimentos/Resumo_Investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_502957104E1982FFD6590456C722A86968EAE8C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FE28DA-7802-4A6C-92B4-D7B5918AA91B}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7487561020E107914B35BC14530188496CD11574" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79672923-2E0B-464D-A605-374C83A49331}"/>
   <bookViews>
-    <workbookView xWindow="-21252" yWindow="-1848" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/12/2022</c:v>
+                  <c:v>04/01/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -251,7 +251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27D8-402E-BB79-98F114F23E47}"/>
+              <c16:uniqueId val="{00000000-B3F0-4986-A70B-1A0242A10E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -287,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/12/2022</c:v>
+                  <c:v>04/01/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -307,7 +307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-27D8-402E-BB79-98F114F23E47}"/>
+              <c16:uniqueId val="{00000001-B3F0-4986-A70B-1A0242A10E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -343,7 +343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/12/2022</c:v>
+                  <c:v>04/01/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -363,7 +363,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-27D8-402E-BB79-98F114F23E47}"/>
+              <c16:uniqueId val="{00000002-B3F0-4986-A70B-1A0242A10E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -399,7 +399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/12/2022</c:v>
+                  <c:v>04/01/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -419,7 +419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-27D8-402E-BB79-98F114F23E47}"/>
+              <c16:uniqueId val="{00000003-B3F0-4986-A70B-1A0242A10E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -455,7 +455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/12/2022</c:v>
+                  <c:v>04/01/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -475,7 +475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-27D8-402E-BB79-98F114F23E47}"/>
+              <c16:uniqueId val="{00000004-B3F0-4986-A70B-1A0242A10E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -511,7 +511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/12/2022</c:v>
+                  <c:v>04/01/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,7 +531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-27D8-402E-BB79-98F114F23E47}"/>
+              <c16:uniqueId val="{00000005-B3F0-4986-A70B-1A0242A10E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,7 +569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/12/2022</c:v>
+                  <c:v>04/01/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -581,7 +581,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3770.0931209635951</c:v>
+                  <c:v>3888.7169236247942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,7 +589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-27D8-402E-BB79-98F114F23E47}"/>
+              <c16:uniqueId val="{00000006-B3F0-4986-A70B-1A0242A10E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -627,7 +627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27/12/2022</c:v>
+                  <c:v>04/01/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -639,10 +639,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>86362.694307157435</c:v>
+                  <c:v>88401.380804278408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2758000000000003</c:v>
+                  <c:v>5.4417999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +650,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-27D8-402E-BB79-98F114F23E47}"/>
+              <c16:uniqueId val="{00000007-B3F0-4986-A70B-1A0242A10E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -868,17 +868,17 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="F1" t="str">
-            <v>Conta: 2563257 | 27/12/2022 09:58</v>
+            <v>Conta: 2563257 | 04/01/2023 09:16</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>R$ 5.360,38</v>
+            <v>R$ 0,00</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>COE</v>
+            <v>Fundos de Investimentos</v>
           </cell>
           <cell r="B6"/>
           <cell r="C6"/>
@@ -886,7 +886,7 @@
           <cell r="E6"/>
           <cell r="F6"/>
           <cell r="G6" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 136.331,16</v>
           </cell>
         </row>
         <row r="7">
@@ -914,7 +914,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>0,7% | Alternativos</v>
+            <v>19,8% | Pós-Fixado</v>
           </cell>
           <cell r="B8" t="str">
             <v>Posição</v>
@@ -923,62 +923,62 @@
             <v>% Alocação</v>
           </cell>
           <cell r="D8" t="str">
-            <v>Rendimento bruto</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="E8" t="str">
-            <v>Rentabilidade</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="F8" t="str">
-            <v>Valor aplicado</v>
+            <v>Valor líquido</v>
           </cell>
           <cell r="G8" t="str">
-            <v>Vencimento</v>
+            <v>Data da cota</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
+            <v>Trend DI Simples FIRF</v>
           </cell>
           <cell r="B9" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 135.403,66</v>
           </cell>
           <cell r="C9" t="str">
-            <v>0,73%</v>
+            <v>19,68%</v>
           </cell>
           <cell r="D9" t="str">
-            <v>R$ 0,00</v>
+            <v>7,63%</v>
           </cell>
           <cell r="E9" t="str">
-            <v>0%</v>
+            <v>R$ 125.805,53</v>
           </cell>
           <cell r="F9" t="str">
-            <v>R$ 5.000,00</v>
+            <v>R$ 134.646,97</v>
           </cell>
           <cell r="G9" t="str">
-            <v>04/04/2024</v>
+            <v>04/01/2023</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Trend Investback FIC FIRF Simples</v>
           </cell>
           <cell r="B10" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 927,50</v>
           </cell>
           <cell r="C10" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,13%</v>
           </cell>
           <cell r="D10" t="str">
-            <v xml:space="preserve"> </v>
+            <v>9,5%</v>
           </cell>
           <cell r="E10" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 847,00</v>
           </cell>
           <cell r="F10" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 923,36</v>
           </cell>
           <cell r="G10" t="str">
-            <v xml:space="preserve"> </v>
+            <v>03/01/2023</v>
           </cell>
         </row>
         <row r="11">
@@ -1006,176 +1006,166 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Ações</v>
-          </cell>
-          <cell r="B12"/>
-          <cell r="C12"/>
-          <cell r="D12"/>
-          <cell r="E12"/>
-          <cell r="F12"/>
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B12" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C12" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D12" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E12" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F12" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
           <cell r="G12" t="str">
-            <v>R$ 10.594,44</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="B13" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C13" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="D13" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="E13" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="F13" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
+            <v>COE</v>
+          </cell>
+          <cell r="B13"/>
+          <cell r="C13"/>
+          <cell r="D13"/>
+          <cell r="E13"/>
+          <cell r="F13"/>
           <cell r="G13" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 5.000,00</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>1,5% | Renda Variável</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B14" t="str">
-            <v>Posição</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C14" t="str">
-            <v>% Alocação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D14" t="str">
-            <v>Rentabilidade (%)</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E14" t="str">
-            <v>Preço médio</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F14" t="str">
-            <v>Último preço (R$)</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G14" t="str">
-            <v>Qtd. total</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>AAPL34</v>
+            <v>0,7% | Alternativos</v>
           </cell>
           <cell r="B15" t="str">
-            <v>R$ 2.789,64</v>
+            <v>Posição</v>
           </cell>
           <cell r="C15" t="str">
-            <v>0,4%</v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D15" t="str">
-            <v>-30,19%</v>
+            <v>Rendimento bruto</v>
           </cell>
           <cell r="E15" t="str">
-            <v>R$ 48,74</v>
+            <v>Rentabilidade</v>
           </cell>
           <cell r="F15" t="str">
-            <v>R$ 34,02</v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="G15" t="str">
-            <v>82</v>
+            <v>Vencimento</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>XPBR31</v>
+            <v>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</v>
           </cell>
           <cell r="B16" t="str">
-            <v>R$ 2.505,60</v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="C16" t="str">
-            <v>0,36%</v>
+            <v>0,73%</v>
           </cell>
           <cell r="D16" t="str">
-            <v>-49,98%</v>
+            <v>R$ 0,00</v>
           </cell>
           <cell r="E16" t="str">
-            <v>R$ 156,54</v>
+            <v>0%</v>
           </cell>
           <cell r="F16" t="str">
-            <v>R$ 78,30</v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="G16" t="str">
-            <v>32</v>
+            <v>04/04/2024</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>GOGL34</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B17" t="str">
-            <v>R$ 2.268,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C17" t="str">
-            <v>0,33%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D17" t="str">
-            <v>-42,34%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E17" t="str">
-            <v>R$ 65,56</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F17" t="str">
-            <v>R$ 37,80</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G17" t="str">
-            <v>60</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>HASH11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B18" t="str">
-            <v>R$ 1.744,20</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C18" t="str">
-            <v>0,25%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D18" t="str">
-            <v>-65,14%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E18" t="str">
-            <v>R$ 43,89</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F18" t="str">
-            <v>R$ 15,30</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G18" t="str">
-            <v>114</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>M1TA34</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>R$ 1.287,00</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>0,19%</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>-67,64%</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>R$ 66,29</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>R$ 21,45</v>
-          </cell>
+            <v>Fundos Imobiliários</v>
+          </cell>
+          <cell r="B19"/>
+          <cell r="C19"/>
+          <cell r="D19"/>
+          <cell r="E19"/>
+          <cell r="F19"/>
           <cell r="G19" t="str">
-            <v>60</v>
+            <v>R$ 519.867,97</v>
           </cell>
         </row>
         <row r="20">
@@ -1203,314 +1193,314 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>75,6% | Renda Variável</v>
           </cell>
           <cell r="B21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Posição</v>
           </cell>
           <cell r="C21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Rentabilidade c/ proventos</v>
           </cell>
           <cell r="E21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Preço médio (abertura)</v>
           </cell>
           <cell r="F21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Última cotação</v>
           </cell>
           <cell r="G21" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Fundos Imobiliários</v>
-          </cell>
-          <cell r="B22"/>
-          <cell r="C22"/>
-          <cell r="D22"/>
-          <cell r="E22"/>
-          <cell r="F22"/>
+            <v>VGIA11</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>R$ 72.965,64</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>10,61%</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>7,41%</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>R$ 10,26</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>R$ 9,93</v>
+          </cell>
           <cell r="G22" t="str">
-            <v>R$ 519.207,78</v>
+            <v>7.348</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v xml:space="preserve"> </v>
+            <v>BLMR11</v>
           </cell>
           <cell r="B23" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 68.900,00</v>
           </cell>
           <cell r="C23" t="str">
-            <v xml:space="preserve"> </v>
+            <v>10,01%</v>
           </cell>
           <cell r="D23" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-0,29%</v>
           </cell>
           <cell r="E23" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 7,51</v>
           </cell>
           <cell r="F23" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 6,89</v>
           </cell>
           <cell r="G23" t="str">
-            <v xml:space="preserve"> </v>
+            <v>10.000</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>75,3% | Renda Variável</v>
+            <v>RZTR11</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Posição</v>
+            <v>R$ 59.213,70</v>
           </cell>
           <cell r="C24" t="str">
-            <v>% Alocação</v>
+            <v>8,61%</v>
           </cell>
           <cell r="D24" t="str">
-            <v>Rentabilidade c/ proventos</v>
+            <v>0,61%</v>
           </cell>
           <cell r="E24" t="str">
-            <v>Preço médio (abertura)</v>
+            <v>R$ 102,97</v>
           </cell>
           <cell r="F24" t="str">
-            <v>Última cotação</v>
+            <v>R$ 93,99</v>
           </cell>
           <cell r="G24" t="str">
-            <v>Qtd. total</v>
+            <v>630</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>VGIA11</v>
+            <v>RBRR11</v>
           </cell>
           <cell r="B25" t="str">
-            <v>R$ 72.157,36</v>
+            <v>R$ 57.725,13</v>
           </cell>
           <cell r="C25" t="str">
-            <v>10,46%</v>
+            <v>8,39%</v>
           </cell>
           <cell r="D25" t="str">
-            <v>6,34%</v>
+            <v>-5,16%</v>
           </cell>
           <cell r="E25" t="str">
-            <v>R$ 10,26</v>
+            <v>R$ 100,38</v>
           </cell>
           <cell r="F25" t="str">
-            <v>R$ 9,82</v>
+            <v>R$ 87,33</v>
           </cell>
           <cell r="G25" t="str">
-            <v>7.348</v>
+            <v>661</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>BLMR11</v>
+            <v>LVBI11</v>
           </cell>
           <cell r="B26" t="str">
-            <v>R$ 70.000,00</v>
+            <v>R$ 52.264,15</v>
           </cell>
           <cell r="C26" t="str">
-            <v>10,15%</v>
+            <v>7,6%</v>
           </cell>
           <cell r="D26" t="str">
-            <v>1,18%</v>
+            <v>5,99%</v>
           </cell>
           <cell r="E26" t="str">
-            <v>R$ 7,51</v>
+            <v>R$ 98,50</v>
           </cell>
           <cell r="F26" t="str">
-            <v>R$ 7,00</v>
+            <v>R$ 97,69</v>
           </cell>
           <cell r="G26" t="str">
-            <v>10.000</v>
+            <v>535</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>RZTR11</v>
+            <v>BRCO11</v>
           </cell>
           <cell r="B27" t="str">
-            <v>R$ 62.149,50</v>
+            <v>R$ 50.847,00</v>
           </cell>
           <cell r="C27" t="str">
-            <v>9,01%</v>
+            <v>7,39%</v>
           </cell>
           <cell r="D27" t="str">
-            <v>4,3%</v>
+            <v>5,98%</v>
           </cell>
           <cell r="E27" t="str">
-            <v>R$ 102,97</v>
+            <v>R$ 99,28</v>
           </cell>
           <cell r="F27" t="str">
-            <v>R$ 98,65</v>
+            <v>R$ 99,70</v>
           </cell>
           <cell r="G27" t="str">
-            <v>630</v>
+            <v>510</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>RBRR11</v>
+            <v>WHGR11</v>
           </cell>
           <cell r="B28" t="str">
-            <v>R$ 55.517,39</v>
+            <v>R$ 49.784,96</v>
           </cell>
           <cell r="C28" t="str">
-            <v>8,05%</v>
+            <v>7,24%</v>
           </cell>
           <cell r="D28" t="str">
-            <v>-8,49%</v>
+            <v>-10,8%</v>
           </cell>
           <cell r="E28" t="str">
-            <v>R$ 100,38</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F28" t="str">
-            <v>R$ 83,99</v>
+            <v>R$ 8,56</v>
           </cell>
           <cell r="G28" t="str">
-            <v>661</v>
+            <v>5.816</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>LVBI11</v>
+            <v>PVBI11</v>
           </cell>
           <cell r="B29" t="str">
-            <v>R$ 52.590,50</v>
+            <v>R$ 49.204,44</v>
           </cell>
           <cell r="C29" t="str">
-            <v>7,63%</v>
+            <v>7,15%</v>
           </cell>
           <cell r="D29" t="str">
-            <v>5,84%</v>
+            <v>-0,44%</v>
           </cell>
           <cell r="E29" t="str">
-            <v>R$ 98,50</v>
+            <v>R$ 93,67</v>
           </cell>
           <cell r="F29" t="str">
-            <v>R$ 98,30</v>
+            <v>R$ 88,18</v>
           </cell>
           <cell r="G29" t="str">
-            <v>535</v>
+            <v>558</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>BRCO11</v>
+            <v>FGAA11</v>
           </cell>
           <cell r="B30" t="str">
-            <v>R$ 49.730,10</v>
+            <v>R$ 44.187,95</v>
           </cell>
           <cell r="C30" t="str">
-            <v>7,21%</v>
+            <v>6,42%</v>
           </cell>
           <cell r="D30" t="str">
-            <v>3,12%</v>
+            <v>8,2%</v>
           </cell>
           <cell r="E30" t="str">
-            <v>R$ 99,28</v>
+            <v>R$ 10,31</v>
           </cell>
           <cell r="F30" t="str">
-            <v>R$ 97,51</v>
+            <v>R$ 9,95</v>
           </cell>
           <cell r="G30" t="str">
-            <v>510</v>
+            <v>4.441</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>WHGR11</v>
+            <v>AAZQ11</v>
           </cell>
           <cell r="B31" t="str">
-            <v>R$ 49.726,80</v>
+            <v>R$ 14.775,00</v>
           </cell>
           <cell r="C31" t="str">
-            <v>7,21%</v>
+            <v>2,15%</v>
           </cell>
           <cell r="D31" t="str">
-            <v>-11,77%</v>
+            <v>-0,5%</v>
           </cell>
           <cell r="E31" t="str">
-            <v>R$ 10,31</v>
+            <v>R$ 10,00</v>
           </cell>
           <cell r="F31" t="str">
-            <v>R$ 8,55</v>
+            <v>R$ 9,85</v>
           </cell>
           <cell r="G31" t="str">
-            <v>5.816</v>
+            <v>1.500</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>PVBI11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B32" t="str">
-            <v>R$ 48.267,00</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C32" t="str">
-            <v>7%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D32" t="str">
-            <v>-2,84%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E32" t="str">
-            <v>R$ 93,67</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F32" t="str">
-            <v>R$ 86,50</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G32" t="str">
-            <v>558</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>FGAA11</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B33" t="str">
-            <v>R$ 44.099,13</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C33" t="str">
-            <v>6,39%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D33" t="str">
-            <v>8%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E33" t="str">
-            <v>R$ 10,31</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F33" t="str">
-            <v>R$ 9,93</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G33" t="str">
-            <v>4.441</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>AAZQ11</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>R$ 14.970,00</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>2,17%</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>-0,2%</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>R$ 10,00</v>
-          </cell>
-          <cell r="F34" t="str">
-            <v>R$ 9,98</v>
-          </cell>
+            <v>Renda Fixa</v>
+          </cell>
+          <cell r="B34"/>
+          <cell r="C34"/>
+          <cell r="D34"/>
+          <cell r="E34"/>
+          <cell r="F34"/>
           <cell r="G34" t="str">
-            <v>1.500</v>
+            <v>R$ 13.646,96</v>
           </cell>
         </row>
         <row r="35">
@@ -1538,130 +1528,130 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>2% | Inflação</v>
           </cell>
           <cell r="B36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Posição a mercado</v>
           </cell>
           <cell r="C36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Valor aplicado</v>
           </cell>
           <cell r="E36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Taxa a mercado</v>
           </cell>
           <cell r="F36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Data aplicação</v>
           </cell>
           <cell r="G36" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Data vencimento</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Fundos de Investimentos</v>
-          </cell>
-          <cell r="B37"/>
-          <cell r="C37"/>
-          <cell r="D37"/>
-          <cell r="E37"/>
-          <cell r="F37"/>
+            <v>CDB BMG  - JUL/2023</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>R$ 7.124,32</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>1,04%</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>R$ 6.000,00</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>IPC-A + 4,15%</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>15/07/2021</v>
+          </cell>
           <cell r="G37" t="str">
-            <v>R$ 135.839,56</v>
+            <v>15/07/2023</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v xml:space="preserve"> </v>
+            <v>CDB BMG  - SET/2024</v>
           </cell>
           <cell r="B38" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 6.522,64</v>
           </cell>
           <cell r="C38" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,95%</v>
           </cell>
           <cell r="D38" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 5.000,00</v>
           </cell>
           <cell r="E38" t="str">
-            <v xml:space="preserve"> </v>
+            <v>IPC-A + 3,65%</v>
           </cell>
           <cell r="F38" t="str">
-            <v xml:space="preserve"> </v>
+            <v>24/09/2020</v>
           </cell>
           <cell r="G38" t="str">
-            <v xml:space="preserve"> </v>
+            <v>23/09/2024</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>19,7% | Pós-Fixado</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B39" t="str">
-            <v>Posição</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C39" t="str">
-            <v>% Alocação</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D39" t="str">
-            <v>Rentabilidade</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E39" t="str">
-            <v>Valor aplicado</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F39" t="str">
-            <v>Valor líquido</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G39" t="str">
-            <v>Data da cota</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Trend DI Simples FIRF</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B40" t="str">
-            <v>R$ 134.914,90</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="C40" t="str">
-            <v>19,56%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="D40" t="str">
-            <v>7,24%</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="E40" t="str">
-            <v>R$ 125.805,53</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F40" t="str">
-            <v>R$ 134.257,09</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="G40" t="str">
-            <v>26/12/2022</v>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Trend Investback FIC FIRF Simples</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>R$ 924,66</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>0,13%</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>9,17%</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>R$ 847,00</v>
-          </cell>
-          <cell r="F41" t="str">
-            <v>R$ 920,85</v>
-          </cell>
+            <v>Ações</v>
+          </cell>
+          <cell r="B41"/>
+          <cell r="C41"/>
+          <cell r="D41"/>
+          <cell r="E41"/>
+          <cell r="F41"/>
           <cell r="G41" t="str">
-            <v>26/12/2022</v>
+            <v>R$ 10.924,84</v>
           </cell>
         </row>
         <row r="42">
@@ -1689,130 +1679,140 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>1,6% | Renda Variável</v>
           </cell>
           <cell r="B43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Posição</v>
           </cell>
           <cell r="C43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>% Alocação</v>
           </cell>
           <cell r="D43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Rentabilidade (%)</v>
           </cell>
           <cell r="E43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Preço médio</v>
           </cell>
           <cell r="F43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Último preço (R$)</v>
           </cell>
           <cell r="G43" t="str">
-            <v xml:space="preserve"> </v>
+            <v>Qtd. total</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Renda Fixa</v>
-          </cell>
-          <cell r="B44"/>
-          <cell r="C44"/>
-          <cell r="D44"/>
-          <cell r="E44"/>
-          <cell r="F44"/>
+            <v>AAPL34</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>R$ 2.792,92</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>0,41%</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>-30,11%</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>R$ 48,74</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>R$ 34,06</v>
+          </cell>
           <cell r="G44" t="str">
-            <v>R$ 13.617,80</v>
+            <v>82</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>XPBR31</v>
           </cell>
           <cell r="B45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 2.440,32</v>
           </cell>
           <cell r="C45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>0,35%</v>
           </cell>
           <cell r="D45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>-51,28%</v>
           </cell>
           <cell r="E45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 156,54</v>
           </cell>
           <cell r="F45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>R$ 76,26</v>
           </cell>
           <cell r="G45" t="str">
-            <v xml:space="preserve"> </v>
+            <v>32</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>2% | Inflação</v>
+            <v>GOGL34</v>
           </cell>
           <cell r="B46" t="str">
-            <v>Posição na taxa de compra</v>
+            <v>R$ 2.435,40</v>
           </cell>
           <cell r="C46" t="str">
-            <v>% Alocação</v>
+            <v>0,35%</v>
           </cell>
           <cell r="D46" t="str">
-            <v>Valor aplicado</v>
+            <v>-38,08%</v>
           </cell>
           <cell r="E46" t="str">
-            <v>Taxa de compra</v>
+            <v>R$ 65,56</v>
           </cell>
           <cell r="F46" t="str">
-            <v>Data aplicação</v>
+            <v>R$ 40,59</v>
           </cell>
           <cell r="G46" t="str">
-            <v>Data vencimento</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>CDB BMG  - JUL/2023</v>
+            <v>HASH11</v>
           </cell>
           <cell r="B47" t="str">
-            <v>R$ 7.108,71</v>
+            <v>R$ 1.801,20</v>
           </cell>
           <cell r="C47" t="str">
-            <v>1,03%</v>
+            <v>0,26%</v>
           </cell>
           <cell r="D47" t="str">
-            <v>R$ 6.000,00</v>
+            <v>-64%</v>
           </cell>
           <cell r="E47" t="str">
-            <v>IPC-A + 4,15%</v>
+            <v>R$ 43,89</v>
           </cell>
           <cell r="F47" t="str">
-            <v>15/07/2021</v>
+            <v>R$ 15,80</v>
           </cell>
           <cell r="G47" t="str">
-            <v>15/07/2023</v>
+            <v>114</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>CDB BMG  - SET/2024</v>
+            <v>M1TA34</v>
           </cell>
           <cell r="B48" t="str">
-            <v>R$ 6.509,09</v>
+            <v>R$ 1.455,00</v>
           </cell>
           <cell r="C48" t="str">
-            <v>0,94%</v>
+            <v>0,21%</v>
           </cell>
           <cell r="D48" t="str">
-            <v>R$ 5.000,00</v>
+            <v>-63,42%</v>
           </cell>
           <cell r="E48" t="str">
-            <v>IPC-A + 3,65%</v>
+            <v>R$ 66,29</v>
           </cell>
           <cell r="F48" t="str">
-            <v>24/09/2020</v>
+            <v>R$ 24,25</v>
           </cell>
           <cell r="G48" t="str">
-            <v>23/09/2024</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="49">
@@ -1858,6 +1858,326 @@
             <v xml:space="preserve"> </v>
           </cell>
           <cell r="G50" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Dividendos, proventos e outras distribuições</v>
+          </cell>
+          <cell r="B51"/>
+          <cell r="C51"/>
+          <cell r="D51"/>
+          <cell r="E51"/>
+          <cell r="F51"/>
+          <cell r="G51"/>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G52" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Proventos</v>
+          </cell>
+          <cell r="B53"/>
+          <cell r="C53"/>
+          <cell r="D53"/>
+          <cell r="E53"/>
+          <cell r="F53"/>
+          <cell r="G53"/>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G54" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Fundos Imobiliários</v>
+          </cell>
+          <cell r="B55"/>
+          <cell r="C55"/>
+          <cell r="D55"/>
+          <cell r="E55"/>
+          <cell r="F55"/>
+          <cell r="G55" t="str">
+            <v>R$ 2.221,05</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G56" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>0,3% | Alternativos</v>
+          </cell>
+          <cell r="B57"/>
+          <cell r="C57" t="str">
+            <v>Provisionado</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>% Alocação</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>Valor provisionado</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>Evento</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>Previsão pagamento</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>WHGR11</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v/>
+          </cell>
+          <cell r="C58" t="str">
+            <v>5.816</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>0,08%</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>R$ 523,44</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>13/01/2023</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>BRCO11</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v/>
+          </cell>
+          <cell r="C59" t="str">
+            <v>510</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>0,05%</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>R$ 331,50</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>13/01/2023</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>AAZQ11</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v/>
+          </cell>
+          <cell r="C60" t="str">
+            <v>1.500</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>0,02%</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>R$ 105,00</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>13/01/2023</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>RZTR11</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v/>
+          </cell>
+          <cell r="C61" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>0,08%</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>R$ 541,80</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>06/01/2023</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>LVBI11</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v/>
+          </cell>
+          <cell r="C62" t="str">
+            <v>535</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>0,06%</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>R$ 401,25</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v>06/01/2023</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>PVBI11</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v/>
+          </cell>
+          <cell r="C63" t="str">
+            <v>558</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>0,05%</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>R$ 318,06</v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>RENDIMENTO</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>06/01/2023</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G64" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Custódia Remunerada</v>
+          </cell>
+          <cell r="B65"/>
+          <cell r="C65"/>
+          <cell r="D65"/>
+          <cell r="E65"/>
+          <cell r="F65"/>
+          <cell r="G65"/>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="B66" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="C66" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D66" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="E66" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="F66" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="G66" t="str">
             <v xml:space="preserve"> </v>
           </cell>
         </row>
@@ -2243,19 +2563,19 @@
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="str">
         <f>Planilha1!A3</f>
-        <v>27/12/2022</v>
+        <v>04/01/2023</v>
       </c>
       <c r="C2" s="3">
         <f>VALUE(Planilha1!B3)</f>
-        <v>135839.56</v>
+        <v>136331.16</v>
       </c>
       <c r="D2" s="3">
         <f>VALUE(Planilha1!C3)</f>
-        <v>519207.78</v>
+        <v>519867.97</v>
       </c>
       <c r="E2" s="3">
         <f>VALUE(Planilha1!D3)</f>
-        <v>10594.44</v>
+        <v>10924.84</v>
       </c>
       <c r="F2" s="3">
         <f>VALUE(Planilha1!E3)</f>
@@ -2263,23 +2583,23 @@
       </c>
       <c r="G2" s="3">
         <f>VALUE(Planilha1!F3)</f>
-        <v>13617.8</v>
+        <v>13646.96</v>
       </c>
       <c r="H2" s="7">
         <f>VALUE(Planilha1!G3)</f>
-        <v>5360.38</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <f>Planilha1!H3</f>
-        <v>3770.0931209635951</v>
+        <v>3888.7169236247942</v>
       </c>
       <c r="J2" s="3">
         <f>Planilha1!I3</f>
-        <v>86362.694307157435</v>
+        <v>88401.380804278408</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(C2:J2)</f>
-        <v>779752.74742812105</v>
+        <v>778061.0277279031</v>
       </c>
     </row>
   </sheetData>
@@ -2341,19 +2661,19 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>RIGHT('[1]Sua carteira'!$F$1,16)</f>
-        <v>27/12/2022 09:58</v>
+        <v>04/01/2023 09:16</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>VLOOKUP(B1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 135.839,56</v>
+        <v>R$ 136.331,16</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(C1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 519.207,78</v>
+        <v>R$ 519.867,97</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(D1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 10.594,44</v>
+        <v>R$ 10.924,84</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(E1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
@@ -2361,35 +2681,35 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>VLOOKUP(F1,'[1]Sua carteira'!$A$6:$G$100,7,0)</f>
-        <v>R$ 13.617,80</v>
+        <v>R$ 13.646,96</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'[1]Sua carteira'!$C$4</f>
-        <v>R$ 5.360,38</v>
+        <v>R$ 0,00</v>
       </c>
       <c r="H2">
-        <v>3770.0931209635951</v>
+        <v>3888.7169236247942</v>
       </c>
       <c r="I2">
-        <v>86362.694307157435</v>
+        <v>88401.380804278408</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>LEFT(A2,10)</f>
-        <v>27/12/2022</v>
+        <v>04/01/2023</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:G3" si="0">MID(B2,4,10)</f>
-        <v>135.839,56</v>
+        <v>136.331,16</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>519.207,78</v>
+        <v>519.867,97</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>10.594,44</v>
+        <v>10.924,84</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -2397,19 +2717,19 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>13.617,80</v>
+        <v>13.646,96</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>5.360,38</v>
+        <v>0,00</v>
       </c>
       <c r="H3" s="6">
         <f>H2</f>
-        <v>3770.0931209635951</v>
+        <v>3888.7169236247942</v>
       </c>
       <c r="I3" s="6">
         <f>I2</f>
-        <v>86362.694307157435</v>
+        <v>88401.380804278408</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -2423,7 +2743,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>5.2758000000000003</v>
+        <v>5.4417999999999997</v>
       </c>
       <c r="J4" s="3"/>
     </row>
